--- a/enVerid COVID-19 Energy Estimator 2.xlsx
+++ b/enVerid COVID-19 Energy Estimator 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliaMa10\Documents\IAQ Focused Ventilation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carcgl-my.sharepoint.com/personal/mason_williams_carrier_com/Documents/Documents/IAQ Focused Ventilation/Energy Estimator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520B3BE0-76E8-4C80-A67A-9EA31E2A114B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{520B3BE0-76E8-4C80-A67A-9EA31E2A114B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3553F86F-1E5D-4F17-B075-7F0CDB3638A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="403">
   <si>
     <t>enVerid COVID-19 Energy Estimator</t>
   </si>
@@ -2015,6 +2015,9 @@
       <t>Urgent care triage room</t>
     </r>
   </si>
+  <si>
+    <t>Bars, cocktail lounges</t>
+  </si>
 </sst>
 </file>
 
@@ -3195,7 +3198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3735,13 +3738,41 @@
     <xf numFmtId="2" fontId="54" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3754,31 +3785,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3875,7 +3881,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3970,19 +3976,19 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48811.200650916107</c:v>
+                  <c:v>9068.1982920532282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12717.333933215412</c:v>
+                  <c:v>2045.2498787468985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11257.490928834852</c:v>
+                  <c:v>1744.1924722937986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8557.9402344004775</c:v>
+                  <c:v>1229.0443095136211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11257.490928834852</c:v>
+                  <c:v>1744.1924722937986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,19 +4106,19 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3349200000000012</c:v>
+                  <c:v>5.928371717171717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3083999999999998</c:v>
+                  <c:v>5.8987474747474753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2590000000000003</c:v>
+                  <c:v>5.8433333333333328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3083999999999998</c:v>
+                  <c:v>5.8987474747474753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4158,7 +4164,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4211,7 +4217,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4283,7 +4289,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4369,7 +4375,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -4482,19 +4488,19 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48811.200650916107</c:v>
+                  <c:v>9068.1982920532282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11365.000862164339</c:v>
+                  <c:v>1874.3617346698743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9856.3846078826027</c:v>
+                  <c:v>1571.2624305745262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7061.0406048087816</c:v>
+                  <c:v>1040.2947606798596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9856.3846078826027</c:v>
+                  <c:v>1571.2624305745262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4612,19 +4618,19 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.13504</c:v>
+                  <c:v>3.4863191919191916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0208000000000004</c:v>
+                  <c:v>3.3587070707070708</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8079999999999998</c:v>
+                  <c:v>3.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0208000000000004</c:v>
+                  <c:v>3.3587070707070708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,7 +4676,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4723,7 +4729,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4795,7 +4801,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4881,7 +4887,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -4976,19 +4982,19 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48811.200650916107</c:v>
+                  <c:v>9068.1982920532282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24151.958367813797</c:v>
+                  <c:v>2885.2967233833019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23102.14104456265</c:v>
+                  <c:v>2585.0437008498757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21210.422501251691</c:v>
+                  <c:v>2153.4001923875271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23102.14104456265</c:v>
+                  <c:v>3723.7087748113781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,19 +5112,19 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9948840000000008</c:v>
+                  <c:v>6.3827070707070703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9946799999999998</c:v>
+                  <c:v>6.3713131313131317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9943</c:v>
+                  <c:v>6.3499999999999988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9946799999999998</c:v>
+                  <c:v>5.8545454545454545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5164,7 +5170,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5217,7 +5223,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5289,7 +5295,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5375,7 +5381,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -5470,19 +5476,19 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48811.200650916107</c:v>
+                  <c:v>9068.1982920532282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11656.212744938042</c:v>
+                  <c:v>1920.6236838308055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10159.208536021011</c:v>
+                  <c:v>1619.3806503193193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7385.4948135285049</c:v>
+                  <c:v>1091.8852596196427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10159.208536021011</c:v>
+                  <c:v>1619.3806503193193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5600,19 +5606,19 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.56752</c:v>
+                  <c:v>5.0764929292929288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5103999999999997</c:v>
+                  <c:v>5.0126868686868686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4039999999999999</c:v>
+                  <c:v>4.8933333333333326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5103999999999997</c:v>
+                  <c:v>5.0126868686868686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5658,7 +5664,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5711,7 +5717,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5783,7 +5789,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5886,9 +5892,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5010150" cy="742950"/>
     <xdr:pic>
@@ -5909,6 +5915,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="10029825"/>
+          <a:ext cx="5010150" cy="742950"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -6360,20 +6370,22 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="8.25" customHeight="1">
@@ -6476,11 +6488,11 @@
       <c r="E4" s="20"/>
       <c r="F4" s="19"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="275" t="s">
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="276"/>
-      <c r="J4" s="277"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="288"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -6510,9 +6522,9 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="279"/>
-      <c r="J5" s="280"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="290"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -6540,9 +6552,9 @@
       <c r="E6" s="20"/>
       <c r="F6" s="19"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="283"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="292"/>
+      <c r="J6" s="293"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -6645,16 +6657,16 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="284"/>
-      <c r="B10" s="279"/>
-      <c r="C10" s="285"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="279"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="279"/>
-      <c r="J10" s="279"/>
+      <c r="A10" s="294"/>
+      <c r="B10" s="276"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="276"/>
+      <c r="J10" s="276"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -6851,16 +6863,16 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="286"/>
-      <c r="B17" s="279"/>
-      <c r="C17" s="279"/>
-      <c r="D17" s="279"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="279"/>
-      <c r="J17" s="279"/>
+      <c r="A17" s="296"/>
+      <c r="B17" s="276"/>
+      <c r="C17" s="276"/>
+      <c r="D17" s="276"/>
+      <c r="E17" s="276"/>
+      <c r="F17" s="276"/>
+      <c r="G17" s="276"/>
+      <c r="H17" s="276"/>
+      <c r="I17" s="276"/>
+      <c r="J17" s="276"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -6909,18 +6921,18 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="286" t="s">
+      <c r="A19" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="279"/>
-      <c r="C19" s="279"/>
-      <c r="D19" s="279"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="279"/>
+      <c r="B19" s="276"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="276"/>
+      <c r="E19" s="276"/>
+      <c r="F19" s="276"/>
+      <c r="G19" s="276"/>
+      <c r="H19" s="276"/>
+      <c r="I19" s="276"/>
+      <c r="J19" s="276"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -7385,18 +7397,18 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="287" t="s">
+      <c r="A35" s="283" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="279"/>
-      <c r="C35" s="279"/>
-      <c r="D35" s="279"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="279"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279"/>
+      <c r="B35" s="276"/>
+      <c r="C35" s="276"/>
+      <c r="D35" s="276"/>
+      <c r="E35" s="276"/>
+      <c r="F35" s="276"/>
+      <c r="G35" s="276"/>
+      <c r="H35" s="276"/>
+      <c r="I35" s="276"/>
+      <c r="J35" s="276"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -7415,16 +7427,16 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="279"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="279"/>
-      <c r="D36" s="279"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="279"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="279"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="279"/>
+      <c r="A36" s="276"/>
+      <c r="B36" s="276"/>
+      <c r="C36" s="276"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="276"/>
+      <c r="F36" s="276"/>
+      <c r="G36" s="276"/>
+      <c r="H36" s="276"/>
+      <c r="I36" s="276"/>
+      <c r="J36" s="276"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -7443,16 +7455,16 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="279"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="279"/>
-      <c r="D37" s="279"/>
-      <c r="E37" s="279"/>
-      <c r="F37" s="279"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="279"/>
-      <c r="I37" s="279"/>
-      <c r="J37" s="279"/>
+      <c r="A37" s="276"/>
+      <c r="B37" s="276"/>
+      <c r="C37" s="276"/>
+      <c r="D37" s="276"/>
+      <c r="E37" s="276"/>
+      <c r="F37" s="276"/>
+      <c r="G37" s="276"/>
+      <c r="H37" s="276"/>
+      <c r="I37" s="276"/>
+      <c r="J37" s="276"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -8119,18 +8131,18 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="288" t="s">
+      <c r="A60" s="278" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="279"/>
-      <c r="C60" s="279"/>
-      <c r="D60" s="279"/>
-      <c r="E60" s="279"/>
-      <c r="F60" s="279"/>
-      <c r="G60" s="279"/>
-      <c r="H60" s="279"/>
-      <c r="I60" s="279"/>
-      <c r="J60" s="279"/>
+      <c r="B60" s="276"/>
+      <c r="C60" s="276"/>
+      <c r="D60" s="276"/>
+      <c r="E60" s="276"/>
+      <c r="F60" s="276"/>
+      <c r="G60" s="276"/>
+      <c r="H60" s="276"/>
+      <c r="I60" s="276"/>
+      <c r="J60" s="276"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -8149,16 +8161,16 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="279"/>
-      <c r="B61" s="279"/>
-      <c r="C61" s="279"/>
-      <c r="D61" s="279"/>
-      <c r="E61" s="279"/>
-      <c r="F61" s="279"/>
-      <c r="G61" s="279"/>
-      <c r="H61" s="279"/>
-      <c r="I61" s="279"/>
-      <c r="J61" s="279"/>
+      <c r="A61" s="276"/>
+      <c r="B61" s="276"/>
+      <c r="C61" s="276"/>
+      <c r="D61" s="276"/>
+      <c r="E61" s="276"/>
+      <c r="F61" s="276"/>
+      <c r="G61" s="276"/>
+      <c r="H61" s="276"/>
+      <c r="I61" s="276"/>
+      <c r="J61" s="276"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -8207,18 +8219,18 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="288" t="s">
+      <c r="A63" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="279"/>
-      <c r="C63" s="279"/>
-      <c r="D63" s="279"/>
-      <c r="E63" s="279"/>
-      <c r="F63" s="279"/>
-      <c r="G63" s="279"/>
-      <c r="H63" s="279"/>
-      <c r="I63" s="279"/>
-      <c r="J63" s="279"/>
+      <c r="B63" s="276"/>
+      <c r="C63" s="276"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="276"/>
+      <c r="F63" s="276"/>
+      <c r="G63" s="276"/>
+      <c r="H63" s="276"/>
+      <c r="I63" s="276"/>
+      <c r="J63" s="276"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -8237,16 +8249,16 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="279"/>
-      <c r="B64" s="279"/>
-      <c r="C64" s="279"/>
-      <c r="D64" s="279"/>
-      <c r="E64" s="279"/>
-      <c r="F64" s="279"/>
-      <c r="G64" s="279"/>
-      <c r="H64" s="279"/>
-      <c r="I64" s="279"/>
-      <c r="J64" s="279"/>
+      <c r="A64" s="276"/>
+      <c r="B64" s="276"/>
+      <c r="C64" s="276"/>
+      <c r="D64" s="276"/>
+      <c r="E64" s="276"/>
+      <c r="F64" s="276"/>
+      <c r="G64" s="276"/>
+      <c r="H64" s="276"/>
+      <c r="I64" s="276"/>
+      <c r="J64" s="276"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -8351,18 +8363,18 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="291" t="s">
+      <c r="A68" s="279" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="279"/>
-      <c r="C68" s="279"/>
-      <c r="D68" s="279"/>
-      <c r="E68" s="279"/>
-      <c r="F68" s="279"/>
-      <c r="G68" s="279"/>
-      <c r="H68" s="279"/>
-      <c r="I68" s="279"/>
-      <c r="J68" s="279"/>
+      <c r="B68" s="276"/>
+      <c r="C68" s="276"/>
+      <c r="D68" s="276"/>
+      <c r="E68" s="276"/>
+      <c r="F68" s="276"/>
+      <c r="G68" s="276"/>
+      <c r="H68" s="276"/>
+      <c r="I68" s="276"/>
+      <c r="J68" s="276"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -8381,18 +8393,18 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A69" s="291" t="s">
+      <c r="A69" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="279"/>
-      <c r="C69" s="279"/>
-      <c r="D69" s="279"/>
-      <c r="E69" s="279"/>
-      <c r="F69" s="279"/>
-      <c r="G69" s="279"/>
-      <c r="H69" s="279"/>
-      <c r="I69" s="279"/>
-      <c r="J69" s="279"/>
+      <c r="B69" s="276"/>
+      <c r="C69" s="276"/>
+      <c r="D69" s="276"/>
+      <c r="E69" s="276"/>
+      <c r="F69" s="276"/>
+      <c r="G69" s="276"/>
+      <c r="H69" s="276"/>
+      <c r="I69" s="276"/>
+      <c r="J69" s="276"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -8411,18 +8423,18 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A70" s="291" t="s">
+      <c r="A70" s="279" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="279"/>
-      <c r="C70" s="279"/>
-      <c r="D70" s="279"/>
-      <c r="E70" s="279"/>
-      <c r="F70" s="279"/>
-      <c r="G70" s="279"/>
-      <c r="H70" s="279"/>
-      <c r="I70" s="279"/>
-      <c r="J70" s="279"/>
+      <c r="B70" s="276"/>
+      <c r="C70" s="276"/>
+      <c r="D70" s="276"/>
+      <c r="E70" s="276"/>
+      <c r="F70" s="276"/>
+      <c r="G70" s="276"/>
+      <c r="H70" s="276"/>
+      <c r="I70" s="276"/>
+      <c r="J70" s="276"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -8441,18 +8453,18 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A71" s="294" t="s">
+      <c r="A71" s="280" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="279"/>
-      <c r="C71" s="279"/>
-      <c r="D71" s="279"/>
-      <c r="E71" s="279"/>
-      <c r="F71" s="279"/>
-      <c r="G71" s="279"/>
-      <c r="H71" s="279"/>
-      <c r="I71" s="279"/>
-      <c r="J71" s="279"/>
+      <c r="B71" s="276"/>
+      <c r="C71" s="276"/>
+      <c r="D71" s="276"/>
+      <c r="E71" s="276"/>
+      <c r="F71" s="276"/>
+      <c r="G71" s="276"/>
+      <c r="H71" s="276"/>
+      <c r="I71" s="276"/>
+      <c r="J71" s="276"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -8529,18 +8541,18 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="295" t="s">
+      <c r="A74" s="281" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="279"/>
-      <c r="C74" s="279"/>
-      <c r="D74" s="279"/>
-      <c r="E74" s="279"/>
-      <c r="F74" s="279"/>
-      <c r="G74" s="279"/>
-      <c r="H74" s="279"/>
-      <c r="I74" s="279"/>
-      <c r="J74" s="279"/>
+      <c r="B74" s="276"/>
+      <c r="C74" s="276"/>
+      <c r="D74" s="276"/>
+      <c r="E74" s="276"/>
+      <c r="F74" s="276"/>
+      <c r="G74" s="276"/>
+      <c r="H74" s="276"/>
+      <c r="I74" s="276"/>
+      <c r="J74" s="276"/>
       <c r="K74" s="40"/>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
@@ -8559,18 +8571,18 @@
       <c r="Z74" s="40"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="291" t="s">
+      <c r="A75" s="282" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="279"/>
-      <c r="C75" s="279"/>
-      <c r="D75" s="279"/>
-      <c r="E75" s="279"/>
-      <c r="F75" s="279"/>
-      <c r="G75" s="279"/>
-      <c r="H75" s="279"/>
-      <c r="I75" s="279"/>
-      <c r="J75" s="279"/>
+      <c r="B75" s="276"/>
+      <c r="C75" s="276"/>
+      <c r="D75" s="276"/>
+      <c r="E75" s="276"/>
+      <c r="F75" s="276"/>
+      <c r="G75" s="276"/>
+      <c r="H75" s="276"/>
+      <c r="I75" s="276"/>
+      <c r="J75" s="276"/>
       <c r="K75" s="40"/>
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
@@ -8589,16 +8601,16 @@
       <c r="Z75" s="40"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="279"/>
-      <c r="B76" s="279"/>
-      <c r="C76" s="279"/>
-      <c r="D76" s="279"/>
-      <c r="E76" s="279"/>
-      <c r="F76" s="279"/>
-      <c r="G76" s="279"/>
-      <c r="H76" s="279"/>
-      <c r="I76" s="279"/>
-      <c r="J76" s="279"/>
+      <c r="A76" s="276"/>
+      <c r="B76" s="276"/>
+      <c r="C76" s="276"/>
+      <c r="D76" s="276"/>
+      <c r="E76" s="276"/>
+      <c r="F76" s="276"/>
+      <c r="G76" s="276"/>
+      <c r="H76" s="276"/>
+      <c r="I76" s="276"/>
+      <c r="J76" s="276"/>
       <c r="K76" s="40"/>
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
@@ -8617,16 +8629,16 @@
       <c r="Z76" s="40"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="279"/>
-      <c r="B77" s="279"/>
-      <c r="C77" s="279"/>
-      <c r="D77" s="279"/>
-      <c r="E77" s="279"/>
-      <c r="F77" s="279"/>
-      <c r="G77" s="279"/>
-      <c r="H77" s="279"/>
-      <c r="I77" s="279"/>
-      <c r="J77" s="279"/>
+      <c r="A77" s="276"/>
+      <c r="B77" s="276"/>
+      <c r="C77" s="276"/>
+      <c r="D77" s="276"/>
+      <c r="E77" s="276"/>
+      <c r="F77" s="276"/>
+      <c r="G77" s="276"/>
+      <c r="H77" s="276"/>
+      <c r="I77" s="276"/>
+      <c r="J77" s="276"/>
       <c r="K77" s="40"/>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
@@ -8675,18 +8687,18 @@
       <c r="Z78" s="40"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="289" t="s">
+      <c r="A79" s="284" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="279"/>
-      <c r="C79" s="279"/>
-      <c r="D79" s="279"/>
-      <c r="E79" s="279"/>
-      <c r="F79" s="279"/>
-      <c r="G79" s="279"/>
-      <c r="H79" s="279"/>
-      <c r="I79" s="279"/>
-      <c r="J79" s="279"/>
+      <c r="B79" s="276"/>
+      <c r="C79" s="276"/>
+      <c r="D79" s="276"/>
+      <c r="E79" s="276"/>
+      <c r="F79" s="276"/>
+      <c r="G79" s="276"/>
+      <c r="H79" s="276"/>
+      <c r="I79" s="276"/>
+      <c r="J79" s="276"/>
       <c r="K79" s="40"/>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -8793,18 +8805,18 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A83" s="290" t="s">
+      <c r="A83" s="285" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="279"/>
-      <c r="C83" s="279"/>
-      <c r="D83" s="279"/>
-      <c r="E83" s="279"/>
-      <c r="F83" s="279"/>
-      <c r="G83" s="279"/>
-      <c r="H83" s="279"/>
-      <c r="I83" s="279"/>
-      <c r="J83" s="279"/>
+      <c r="B83" s="276"/>
+      <c r="C83" s="276"/>
+      <c r="D83" s="276"/>
+      <c r="E83" s="276"/>
+      <c r="F83" s="276"/>
+      <c r="G83" s="276"/>
+      <c r="H83" s="276"/>
+      <c r="I83" s="276"/>
+      <c r="J83" s="276"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -8913,18 +8925,18 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A87" s="291" t="s">
+      <c r="A87" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="279"/>
-      <c r="C87" s="279"/>
-      <c r="D87" s="279"/>
-      <c r="E87" s="279"/>
-      <c r="F87" s="279"/>
-      <c r="G87" s="279"/>
-      <c r="H87" s="279"/>
-      <c r="I87" s="279"/>
-      <c r="J87" s="279"/>
+      <c r="B87" s="276"/>
+      <c r="C87" s="276"/>
+      <c r="D87" s="276"/>
+      <c r="E87" s="276"/>
+      <c r="F87" s="276"/>
+      <c r="G87" s="276"/>
+      <c r="H87" s="276"/>
+      <c r="I87" s="276"/>
+      <c r="J87" s="276"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -9034,17 +9046,17 @@
       <c r="A91" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B91" s="292" t="s">
+      <c r="B91" s="275" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="279"/>
-      <c r="D91" s="279"/>
-      <c r="E91" s="279"/>
-      <c r="F91" s="279"/>
-      <c r="G91" s="279"/>
-      <c r="H91" s="279"/>
-      <c r="I91" s="279"/>
-      <c r="J91" s="279"/>
+      <c r="C91" s="276"/>
+      <c r="D91" s="276"/>
+      <c r="E91" s="276"/>
+      <c r="F91" s="276"/>
+      <c r="G91" s="276"/>
+      <c r="H91" s="276"/>
+      <c r="I91" s="276"/>
+      <c r="J91" s="276"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -9439,12 +9451,12 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A105" s="293" t="s">
+      <c r="A105" s="277" t="s">
         <v>68</v>
       </c>
-      <c r="B105" s="279"/>
-      <c r="C105" s="279"/>
-      <c r="D105" s="279"/>
+      <c r="B105" s="276"/>
+      <c r="C105" s="276"/>
+      <c r="D105" s="276"/>
       <c r="E105" s="50"/>
       <c r="F105" s="50"/>
       <c r="G105" s="50"/>
@@ -9469,10 +9481,10 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A106" s="279"/>
-      <c r="B106" s="279"/>
-      <c r="C106" s="279"/>
-      <c r="D106" s="279"/>
+      <c r="A106" s="276"/>
+      <c r="B106" s="276"/>
+      <c r="C106" s="276"/>
+      <c r="D106" s="276"/>
       <c r="E106" s="50"/>
       <c r="F106" s="50"/>
       <c r="G106" s="50"/>
@@ -9497,10 +9509,10 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A107" s="279"/>
-      <c r="B107" s="279"/>
-      <c r="C107" s="279"/>
-      <c r="D107" s="279"/>
+      <c r="A107" s="276"/>
+      <c r="B107" s="276"/>
+      <c r="C107" s="276"/>
+      <c r="D107" s="276"/>
       <c r="E107" s="50"/>
       <c r="F107" s="50"/>
       <c r="G107" s="50"/>
@@ -9525,10 +9537,10 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A108" s="279"/>
-      <c r="B108" s="279"/>
-      <c r="C108" s="279"/>
-      <c r="D108" s="279"/>
+      <c r="A108" s="276"/>
+      <c r="B108" s="276"/>
+      <c r="C108" s="276"/>
+      <c r="D108" s="276"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -9553,10 +9565,10 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A109" s="279"/>
-      <c r="B109" s="279"/>
-      <c r="C109" s="279"/>
-      <c r="D109" s="279"/>
+      <c r="A109" s="276"/>
+      <c r="B109" s="276"/>
+      <c r="C109" s="276"/>
+      <c r="D109" s="276"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -9581,10 +9593,10 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A110" s="279"/>
-      <c r="B110" s="279"/>
-      <c r="C110" s="279"/>
-      <c r="D110" s="279"/>
+      <c r="A110" s="276"/>
+      <c r="B110" s="276"/>
+      <c r="C110" s="276"/>
+      <c r="D110" s="276"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -9609,10 +9621,10 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A111" s="279"/>
-      <c r="B111" s="279"/>
-      <c r="C111" s="279"/>
-      <c r="D111" s="279"/>
+      <c r="A111" s="276"/>
+      <c r="B111" s="276"/>
+      <c r="C111" s="276"/>
+      <c r="D111" s="276"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -9637,10 +9649,10 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A112" s="279"/>
-      <c r="B112" s="279"/>
-      <c r="C112" s="279"/>
-      <c r="D112" s="279"/>
+      <c r="A112" s="276"/>
+      <c r="B112" s="276"/>
+      <c r="C112" s="276"/>
+      <c r="D112" s="276"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -9665,10 +9677,10 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A113" s="279"/>
-      <c r="B113" s="279"/>
-      <c r="C113" s="279"/>
-      <c r="D113" s="279"/>
+      <c r="A113" s="276"/>
+      <c r="B113" s="276"/>
+      <c r="C113" s="276"/>
+      <c r="D113" s="276"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -9693,10 +9705,10 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A114" s="279"/>
-      <c r="B114" s="279"/>
-      <c r="C114" s="279"/>
-      <c r="D114" s="279"/>
+      <c r="A114" s="276"/>
+      <c r="B114" s="276"/>
+      <c r="C114" s="276"/>
+      <c r="D114" s="276"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -15765,6 +15777,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H4:J6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A35:J37"/>
+    <mergeCell ref="A60:J61"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A87:J87"/>
     <mergeCell ref="B91:J91"/>
     <mergeCell ref="A105:D114"/>
     <mergeCell ref="A63:J64"/>
@@ -15774,16 +15796,6 @@
     <mergeCell ref="A71:J71"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A75:J77"/>
-    <mergeCell ref="A35:J37"/>
-    <mergeCell ref="A60:J61"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A87:J87"/>
-    <mergeCell ref="H4:J6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A19:J19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -15807,18 +15819,18 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="1" max="1" width="55.26953125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="169.7109375" customWidth="1"/>
-    <col min="6" max="8" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="2.453125" customWidth="1"/>
+    <col min="5" max="5" width="169.7265625" customWidth="1"/>
+    <col min="6" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="8.25" customHeight="1">
@@ -16116,7 +16128,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="12"/>
@@ -16149,7 +16161,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="12"/>
@@ -16182,7 +16194,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="76">
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>86</v>
@@ -16215,7 +16227,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>88</v>
@@ -16248,7 +16260,7 @@
         <v>89</v>
       </c>
       <c r="B15" s="76">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>90</v>
@@ -16281,8 +16293,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="76">
-        <f>B13</f>
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="C16" s="77" t="s">
         <v>92</v>
@@ -16390,7 +16401,7 @@
         IF(B18="IAQP",
              B13*0.05,
              IF(B18="100% OA",B16,"Enter Value"))))</f>
-        <v>5666.666666666667</v>
+        <v>1600</v>
       </c>
       <c r="C19" s="83" t="s">
         <v>92</v>
@@ -16426,7 +16437,7 @@
       </c>
       <c r="B20" s="79">
         <f>(B19/(B13*B14))*60</f>
-        <v>0.68</v>
+        <v>1.9393939393939394</v>
       </c>
       <c r="C20" s="83" t="s">
         <v>102</v>
@@ -16589,7 +16600,7 @@
         <v>112</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="296" t="s">
+      <c r="E25" s="297" t="s">
         <v>113</v>
       </c>
       <c r="F25" s="49"/>
@@ -16624,7 +16635,7 @@
         <v>115</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="279"/>
+      <c r="E26" s="276"/>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
@@ -16658,7 +16669,7 @@
         <v>117</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="279"/>
+      <c r="E27" s="276"/>
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
@@ -16689,7 +16700,7 @@
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="279"/>
+      <c r="E28" s="276"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
@@ -16720,7 +16731,7 @@
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="279"/>
+      <c r="E29" s="276"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
       <c r="H29" s="49"/>
@@ -16748,7 +16759,7 @@
       </c>
       <c r="B30" s="75">
         <f>VLOOKUP(B11,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="C30" s="85" t="s">
         <v>121</v>
@@ -16784,7 +16795,7 @@
       </c>
       <c r="B31" s="75">
         <f>IF(B24="Electricity",((VLOOKUP(B11,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(B24="Steam",((VLOOKUP(B11,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(B11,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="C31" s="85" t="str">
         <f>IF($B$24="Electricity","$/kWh (blended)",IF($B$24="Steam","$/mmBTU","$/therm"))</f>
@@ -17062,7 +17073,7 @@
         <v>133</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="C40" s="77"/>
       <c r="D40" s="12"/>
@@ -17096,7 +17107,7 @@
       </c>
       <c r="B41" s="88">
         <f>VLOOKUP(B40,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
-        <v>1.5029751000000002</v>
+        <v>0.63092805000000007</v>
       </c>
       <c r="C41" s="83" t="s">
         <v>137</v>
@@ -17298,7 +17309,7 @@
       </c>
       <c r="B47" s="79">
         <f>(((B16-B19)/(B13*B14))*60)*VLOOKUP(B40,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>5.3146800000000001</v>
+        <v>3.915151515151515</v>
       </c>
       <c r="C47" s="83" t="s">
         <v>102</v>
@@ -17419,7 +17430,7 @@
       </c>
       <c r="B51" s="76">
         <f>B13/1000</f>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="C51" s="61"/>
       <c r="D51" s="12"/>
@@ -17519,7 +17530,7 @@
       </c>
       <c r="B54" s="79">
         <f>((B53*B51)/(B13*B14))*60</f>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="C54" s="83" t="s">
         <v>102</v>
@@ -17783,7 +17794,7 @@
       </c>
       <c r="B62" s="95">
         <f>IF(B27&lt;168,B19*(((VLOOKUP(B11,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(B34="Yes",1-B35,1)))/(B28/3))*(B27/72),B19*(((VLOOKUP(B11,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(B34="Yes",1-B35,1)))/(B28/3))*(B27/168))</f>
-        <v>50779.000000000007</v>
+        <v>18390.400000000001</v>
       </c>
       <c r="C62" s="67" t="s">
         <v>169</v>
@@ -17817,7 +17828,7 @@
       </c>
       <c r="B63" s="95">
         <f>B62*B30</f>
-        <v>4727.5249000000003</v>
+        <v>2474.9389311646742</v>
       </c>
       <c r="C63" s="67" t="s">
         <v>171</v>
@@ -17851,7 +17862,7 @@
       </c>
       <c r="B64" s="96">
         <f>IF(B27&lt;168,(IF(B24="Electricity",((VLOOKUP(B11,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(B34="Yes",1-B36,1))),IF(B24="Steam",((VLOOKUP(B11,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(B34="Yes",1-B36,1))),((VLOOKUP(B11,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(B34="Yes",1-B36,1))))))*(B27/72)*B19/(B29),(IF(B24="Electricity",((VLOOKUP(B11,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(B34="Yes",1-B36,1))),IF(B24="Steam",((VLOOKUP(B11,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(B34="Yes",1-B36,1))),((VLOOKUP(B11,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(B34="Yes",1-B36,1))))))*(B27/168)*B19/(B29))</f>
-        <v>952.25386666666668</v>
+        <v>213.27503999999999</v>
       </c>
       <c r="C64" s="67" t="str">
         <f>IF($B$24="Electricity","kWh/year",IF($B$24="Steam","mmBTU/year","therm/year"))</f>
@@ -17888,7 +17899,7 @@
       </c>
       <c r="B65" s="95">
         <f>B31*B64</f>
-        <v>804.41117377049193</v>
+        <v>163.08239015990159</v>
       </c>
       <c r="C65" s="67" t="s">
         <v>171</v>
@@ -17978,7 +17989,7 @@
       </c>
       <c r="B68" s="100">
         <f>IF(B39="No",0,((((((B16-B19)*1.699)/60)/60)*B41/0.00401865)/(B42*B43))/1000)</f>
-        <v>10.830662309368197</v>
+        <v>0.34868366013071905</v>
       </c>
       <c r="C68" s="101" t="s">
         <v>177</v>
@@ -18014,7 +18025,7 @@
       </c>
       <c r="B69" s="103">
         <f>IF(B39="No",0,B68*B27*52*B30)</f>
-        <v>3775.2049707921592</v>
+        <v>175.68745348680264</v>
       </c>
       <c r="C69" s="101" t="s">
         <v>171</v>
@@ -18050,7 +18061,7 @@
       </c>
       <c r="B70" s="103">
         <f>IF(B39="No",0,((12/B45)*VLOOKUP(B40,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((B16-B19)*1.699)/60)/60/(B44/196.85))*10.7639),0)))</f>
-        <v>13350</v>
+        <v>875</v>
       </c>
       <c r="C70" s="104" t="s">
         <v>171</v>
@@ -18086,7 +18097,7 @@
       </c>
       <c r="B71" s="103">
         <f>IF(B39="No",0,B46*(12/B45)*(ROUNDUP((((((B16-B19)*1.699)/60)/60/(B44/196.85))*10.7639),0)))</f>
-        <v>445</v>
+        <v>35</v>
       </c>
       <c r="C71" s="104" t="s">
         <v>171</v>
@@ -18122,7 +18133,7 @@
       </c>
       <c r="B72" s="103">
         <f>IF(B39="No",0,B69+B70+B71)</f>
-        <v>17570.204970792158</v>
+        <v>1085.6874534868027</v>
       </c>
       <c r="C72" s="104" t="s">
         <v>171</v>
@@ -18479,7 +18490,7 @@
       </c>
       <c r="B83" s="106">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>1.9393939393939394</v>
       </c>
       <c r="C83" s="107" t="str">
         <f t="shared" si="0"/>
@@ -18515,7 +18526,7 @@
       </c>
       <c r="B84" s="108">
         <f>IF(B39="No",0,B47)</f>
-        <v>5.3146800000000001</v>
+        <v>3.915151515151515</v>
       </c>
       <c r="C84" s="107" t="str">
         <f>C47</f>
@@ -18586,7 +18597,7 @@
       </c>
       <c r="B86" s="108">
         <f>SUM(B83:B85)</f>
-        <v>5.9946799999999998</v>
+        <v>5.8545454545454545</v>
       </c>
       <c r="C86" s="109" t="s">
         <v>102</v>
@@ -18678,7 +18689,7 @@
       </c>
       <c r="B89" s="95">
         <f>B65+B63</f>
-        <v>5531.9360737704919</v>
+        <v>2638.0213213245756</v>
       </c>
       <c r="C89" s="67" t="str">
         <f>C65</f>
@@ -18715,7 +18726,7 @@
       </c>
       <c r="B90" s="103">
         <f t="shared" ref="B90:C90" si="1">B72</f>
-        <v>17570.204970792158</v>
+        <v>1085.6874534868027</v>
       </c>
       <c r="C90" s="104" t="str">
         <f t="shared" si="1"/>
@@ -18788,7 +18799,7 @@
       </c>
       <c r="B92" s="95">
         <f>SUM(B89:B91)</f>
-        <v>23102.14104456265</v>
+        <v>3723.7087748113781</v>
       </c>
       <c r="C92" s="111" t="s">
         <v>171</v>
@@ -18878,7 +18889,7 @@
       </c>
       <c r="B95" s="103">
         <f>B62*(7.07*(10^(-4)))+IF(B24="Electricity",(B64*(7.07*(10^(-4)))),IF(B24="Gas",(B64*0.0053),(B64*0.0549)))</f>
-        <v>40.947698493333341</v>
+        <v>14.132370512000003</v>
       </c>
       <c r="C95" s="104" t="s">
         <v>208</v>
@@ -18914,7 +18925,7 @@
       </c>
       <c r="B96" s="103">
         <f>IF(B39="No",0,B68*B27*52)*(7.07*(10^(-4)))</f>
-        <v>28.668849778196098</v>
+        <v>0.92296843783529448</v>
       </c>
       <c r="C96" s="104" t="s">
         <v>210</v>
@@ -18986,7 +18997,7 @@
       </c>
       <c r="B98" s="103">
         <f>B95+B96+B97</f>
-        <v>69.616548271529439</v>
+        <v>15.055338949835297</v>
       </c>
       <c r="C98" s="104" t="s">
         <v>214</v>
@@ -25185,19 +25196,19 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" customWidth="1"/>
+    <col min="3" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" customWidth="1"/>
+    <col min="9" max="16" width="9.1796875" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="28" width="8.7109375" customWidth="1"/>
+    <col min="18" max="22" width="9.1796875" customWidth="1"/>
+    <col min="23" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="8.25" customHeight="1">
@@ -25383,7 +25394,7 @@
       </c>
       <c r="C7" s="123" t="str">
         <f>' Calculation'!B11</f>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="D7" s="124"/>
       <c r="E7" s="125"/>
@@ -25418,7 +25429,7 @@
       </c>
       <c r="C8" s="123" t="str">
         <f>' Calculation'!B12</f>
-        <v>Office space</v>
+        <v>Bars, cocktail lounges</v>
       </c>
       <c r="D8" s="124"/>
       <c r="E8" s="125"/>
@@ -25453,7 +25464,7 @@
       </c>
       <c r="C9" s="127">
         <f>' Calculation'!B13</f>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="D9" s="124"/>
       <c r="E9" s="125"/>
@@ -25488,7 +25499,7 @@
       </c>
       <c r="C10" s="127">
         <f>' Calculation'!B15</f>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="D10" s="124"/>
       <c r="E10" s="125"/>
@@ -25750,7 +25761,7 @@
       </c>
       <c r="F18" s="138" t="str">
         <f>IF(' Calculation'!B39="Yes",' Calculation'!B40,"None")</f>
-        <v>HEPA</v>
+        <v>MERV 16</v>
       </c>
       <c r="G18" s="122"/>
       <c r="H18" s="122"/>
@@ -25782,19 +25793,19 @@
       </c>
       <c r="C19" s="140">
         <f t="shared" ref="C19:F19" si="0">D135</f>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="D19" s="141">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="E19" s="141">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F19" s="142">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="G19" s="125"/>
       <c r="H19" s="124"/>
@@ -25826,19 +25837,19 @@
       </c>
       <c r="C20" s="143">
         <f t="shared" ref="C20:F20" si="1">H135</f>
-        <v>3.13504</v>
+        <v>3.4863191919191916</v>
       </c>
       <c r="D20" s="144">
         <f t="shared" si="1"/>
-        <v>4.56752</v>
+        <v>5.0764929292929288</v>
       </c>
       <c r="E20" s="144">
         <f t="shared" si="1"/>
-        <v>5.3349200000000012</v>
+        <v>5.928371717171717</v>
       </c>
       <c r="F20" s="145">
         <f t="shared" si="1"/>
-        <v>5.9948840000000008</v>
+        <v>6.3827070707070703</v>
       </c>
       <c r="G20" s="146"/>
       <c r="H20" s="124"/>
@@ -25870,19 +25881,19 @@
       </c>
       <c r="C21" s="143">
         <f t="shared" ref="C21:F21" si="2">L135</f>
-        <v>3.0208000000000004</v>
+        <v>3.3587070707070708</v>
       </c>
       <c r="D21" s="144">
         <f t="shared" si="2"/>
-        <v>4.5103999999999997</v>
+        <v>5.0126868686868686</v>
       </c>
       <c r="E21" s="144">
         <f t="shared" si="2"/>
-        <v>5.3083999999999998</v>
+        <v>5.8987474747474753</v>
       </c>
       <c r="F21" s="145">
         <f t="shared" si="2"/>
-        <v>5.9946799999999998</v>
+        <v>6.3713131313131317</v>
       </c>
       <c r="G21" s="125"/>
       <c r="H21" s="124"/>
@@ -25914,19 +25925,19 @@
       </c>
       <c r="C22" s="143">
         <f t="shared" ref="C22:F22" si="3">P135</f>
-        <v>2.8079999999999998</v>
+        <v>3.12</v>
       </c>
       <c r="D22" s="144">
         <f t="shared" si="3"/>
-        <v>4.4039999999999999</v>
+        <v>4.8933333333333326</v>
       </c>
       <c r="E22" s="144">
         <f t="shared" si="3"/>
-        <v>5.2590000000000003</v>
+        <v>5.8433333333333328</v>
       </c>
       <c r="F22" s="145">
         <f t="shared" si="3"/>
-        <v>5.9943</v>
+        <v>6.3499999999999988</v>
       </c>
       <c r="G22" s="125"/>
       <c r="H22" s="124"/>
@@ -25959,19 +25970,19 @@
       </c>
       <c r="C23" s="148">
         <f t="shared" ref="C23:E23" si="4">T135</f>
-        <v>3.0208000000000004</v>
+        <v>3.3587070707070708</v>
       </c>
       <c r="D23" s="149">
         <f t="shared" si="4"/>
-        <v>4.5103999999999997</v>
+        <v>5.0126868686868686</v>
       </c>
       <c r="E23" s="149">
         <f t="shared" si="4"/>
-        <v>5.3083999999999998</v>
+        <v>5.8987474747474753</v>
       </c>
       <c r="F23" s="150">
         <f>C135</f>
-        <v>5.9946799999999998</v>
+        <v>5.8545454545454545</v>
       </c>
       <c r="G23" s="125"/>
       <c r="H23" s="124"/>
@@ -26072,7 +26083,7 @@
       </c>
       <c r="F26" s="138" t="str">
         <f>F18</f>
-        <v>HEPA</v>
+        <v>MERV 16</v>
       </c>
       <c r="G26" s="122"/>
       <c r="H26" s="122"/>
@@ -26104,19 +26115,19 @@
       </c>
       <c r="C27" s="152">
         <f t="shared" ref="C27:F27" si="5">D141</f>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="D27" s="153">
         <f t="shared" si="5"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="E27" s="153">
         <f t="shared" si="5"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="F27" s="154">
         <f t="shared" si="5"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="G27" s="125"/>
       <c r="H27" s="124"/>
@@ -26148,19 +26159,19 @@
       </c>
       <c r="C28" s="155">
         <f t="shared" ref="C28:F28" si="6">H141</f>
-        <v>11365.000862164339</v>
+        <v>1874.3617346698743</v>
       </c>
       <c r="D28" s="156">
         <f t="shared" si="6"/>
-        <v>11656.212744938042</v>
+        <v>1920.6236838308055</v>
       </c>
       <c r="E28" s="156">
         <f t="shared" si="6"/>
-        <v>12717.333933215412</v>
+        <v>2045.2498787468985</v>
       </c>
       <c r="F28" s="157">
         <f t="shared" si="6"/>
-        <v>24151.958367813797</v>
+        <v>2885.2967233833019</v>
       </c>
       <c r="G28" s="125"/>
       <c r="H28" s="124"/>
@@ -26192,19 +26203,19 @@
       </c>
       <c r="C29" s="155">
         <f t="shared" ref="C29:F29" si="7">L141</f>
-        <v>9856.3846078826027</v>
+        <v>1571.2624305745262</v>
       </c>
       <c r="D29" s="156">
         <f t="shared" si="7"/>
-        <v>10159.208536021011</v>
+        <v>1619.3806503193193</v>
       </c>
       <c r="E29" s="156">
         <f t="shared" si="7"/>
-        <v>11257.490928834852</v>
+        <v>1744.1924722937986</v>
       </c>
       <c r="F29" s="157">
         <f t="shared" si="7"/>
-        <v>23102.14104456265</v>
+        <v>2585.0437008498757</v>
       </c>
       <c r="G29" s="125"/>
       <c r="H29" s="124"/>
@@ -26236,19 +26247,19 @@
       </c>
       <c r="C30" s="155">
         <f t="shared" ref="C30:F30" si="8">P141</f>
-        <v>7061.0406048087816</v>
+        <v>1040.2947606798596</v>
       </c>
       <c r="D30" s="156">
         <f t="shared" si="8"/>
-        <v>7385.4948135285049</v>
+        <v>1091.8852596196427</v>
       </c>
       <c r="E30" s="156">
         <f t="shared" si="8"/>
-        <v>8557.9402344004775</v>
+        <v>1229.0443095136211</v>
       </c>
       <c r="F30" s="157">
         <f t="shared" si="8"/>
-        <v>21210.422501251691</v>
+        <v>2153.4001923875271</v>
       </c>
       <c r="G30" s="125"/>
       <c r="H30" s="124"/>
@@ -26281,19 +26292,19 @@
       </c>
       <c r="C31" s="158">
         <f t="shared" ref="C31:E31" si="9">T141</f>
-        <v>9856.3846078826027</v>
+        <v>1571.2624305745262</v>
       </c>
       <c r="D31" s="159">
         <f t="shared" si="9"/>
-        <v>10159.208536021011</v>
+        <v>1619.3806503193193</v>
       </c>
       <c r="E31" s="159">
         <f t="shared" si="9"/>
-        <v>11257.490928834852</v>
+        <v>1744.1924722937986</v>
       </c>
       <c r="F31" s="160">
         <f>C141</f>
-        <v>23102.14104456265</v>
+        <v>3723.7087748113781</v>
       </c>
       <c r="G31" s="125"/>
       <c r="H31" s="124"/>
@@ -26394,7 +26405,7 @@
       </c>
       <c r="F34" s="165" t="str">
         <f>F26</f>
-        <v>HEPA</v>
+        <v>MERV 16</v>
       </c>
       <c r="G34" s="125"/>
       <c r="H34" s="124"/>
@@ -26426,19 +26437,19 @@
       </c>
       <c r="C35" s="152">
         <f t="shared" ref="C35:F35" si="10">D138</f>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="D35" s="153">
         <f t="shared" si="10"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="E35" s="153">
         <f t="shared" si="10"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="F35" s="154">
         <f t="shared" si="10"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="G35" s="125"/>
       <c r="H35" s="124"/>
@@ -26470,19 +26481,19 @@
       </c>
       <c r="C36" s="155">
         <f t="shared" ref="C36:F36" si="11">H138</f>
-        <v>7191.5168959016401</v>
+        <v>1343.1925227744296</v>
       </c>
       <c r="D36" s="156">
         <f t="shared" si="11"/>
-        <v>7191.5168959016401</v>
+        <v>1343.1925227744296</v>
       </c>
       <c r="E36" s="156">
         <f t="shared" si="11"/>
-        <v>7191.5168959016401</v>
+        <v>1343.1925227744296</v>
       </c>
       <c r="F36" s="157">
         <f t="shared" si="11"/>
-        <v>7191.5168959016401</v>
+        <v>1343.1925227744296</v>
       </c>
       <c r="G36" s="125"/>
       <c r="H36" s="124"/>
@@ -26514,19 +26525,19 @@
       </c>
       <c r="C37" s="155">
         <f t="shared" ref="C37:F37" si="12">L138</f>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="D37" s="156">
         <f t="shared" si="12"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="E37" s="156">
         <f t="shared" si="12"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="F37" s="157">
         <f t="shared" si="12"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="G37" s="125"/>
       <c r="H37" s="124"/>
@@ -26558,19 +26569,19 @@
       </c>
       <c r="C38" s="155">
         <f t="shared" ref="C38:F38" si="13">P138</f>
-        <v>2440.5600325458054</v>
+        <v>453.40991460266144</v>
       </c>
       <c r="D38" s="156">
         <f t="shared" si="13"/>
-        <v>2440.5600325458054</v>
+        <v>453.40991460266144</v>
       </c>
       <c r="E38" s="156">
         <f t="shared" si="13"/>
-        <v>2440.5600325458054</v>
+        <v>453.40991460266144</v>
       </c>
       <c r="F38" s="157">
         <f t="shared" si="13"/>
-        <v>2440.5600325458054</v>
+        <v>453.40991460266144</v>
       </c>
       <c r="G38" s="125"/>
       <c r="H38" s="124"/>
@@ -26603,19 +26614,19 @@
       </c>
       <c r="C39" s="158">
         <f t="shared" ref="C39:E39" si="14">T138</f>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="D39" s="159">
         <f t="shared" si="14"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="E39" s="159">
         <f t="shared" si="14"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="F39" s="160">
         <f>C138</f>
-        <v>5531.9360737704919</v>
+        <v>2638.0213213245756</v>
       </c>
       <c r="G39" s="125"/>
       <c r="H39" s="124"/>
@@ -26716,7 +26727,7 @@
       </c>
       <c r="F42" s="165" t="str">
         <f>F34</f>
-        <v>HEPA</v>
+        <v>MERV 16</v>
       </c>
       <c r="G42" s="125"/>
       <c r="H42" s="124"/>
@@ -26792,19 +26803,19 @@
       </c>
       <c r="C44" s="155">
         <f t="shared" ref="C44:F44" si="16">H139</f>
-        <v>4173.4839662626991</v>
+        <v>531.16921189544473</v>
       </c>
       <c r="D44" s="156">
         <f t="shared" si="16"/>
-        <v>4464.6958490364013</v>
+        <v>577.4311610563758</v>
       </c>
       <c r="E44" s="156">
         <f t="shared" si="16"/>
-        <v>5525.8170373137718</v>
+        <v>702.05735597246883</v>
       </c>
       <c r="F44" s="157">
         <f t="shared" si="16"/>
-        <v>16960.441471912156</v>
+        <v>1542.1042006088724</v>
       </c>
       <c r="G44" s="125"/>
       <c r="H44" s="124"/>
@@ -26836,19 +26847,19 @@
       </c>
       <c r="C45" s="155">
         <f t="shared" ref="C45:F45" si="17">L139</f>
-        <v>4324.4485341121108</v>
+        <v>538.03741305573431</v>
       </c>
       <c r="D45" s="156">
         <f t="shared" si="17"/>
-        <v>4627.2724622505193</v>
+        <v>586.15563280052743</v>
       </c>
       <c r="E45" s="156">
         <f t="shared" si="17"/>
-        <v>5725.5548550643598</v>
+        <v>710.96745477500667</v>
       </c>
       <c r="F45" s="157">
         <f t="shared" si="17"/>
-        <v>17570.204970792158</v>
+        <v>1551.8186833310838</v>
       </c>
       <c r="G45" s="125"/>
       <c r="H45" s="124"/>
@@ -26880,19 +26891,19 @@
       </c>
       <c r="C46" s="155">
         <f t="shared" ref="C46:F46" si="18">P139</f>
-        <v>4620.4805722629762</v>
+        <v>586.88484607719806</v>
       </c>
       <c r="D46" s="156">
         <f t="shared" si="18"/>
-        <v>4944.9347809826995</v>
+        <v>638.47534501698135</v>
       </c>
       <c r="E46" s="156">
         <f t="shared" si="18"/>
-        <v>6117.3802018546721</v>
+        <v>775.6343949109596</v>
       </c>
       <c r="F46" s="157">
         <f t="shared" si="18"/>
-        <v>18769.862468705884</v>
+        <v>1699.9902777848656</v>
       </c>
       <c r="G46" s="125"/>
       <c r="H46" s="124"/>
@@ -26925,19 +26936,19 @@
       </c>
       <c r="C47" s="158">
         <f t="shared" ref="C47:E47" si="19">T139</f>
-        <v>4324.4485341121108</v>
+        <v>538.03741305573431</v>
       </c>
       <c r="D47" s="159">
         <f t="shared" si="19"/>
-        <v>4627.2724622505193</v>
+        <v>586.15563280052743</v>
       </c>
       <c r="E47" s="159">
         <f t="shared" si="19"/>
-        <v>5725.5548550643598</v>
+        <v>710.96745477500667</v>
       </c>
       <c r="F47" s="160">
         <f>' Calculation'!B90</f>
-        <v>17570.204970792158</v>
+        <v>1085.6874534868027</v>
       </c>
       <c r="G47" s="125"/>
       <c r="H47" s="124"/>
@@ -27027,13 +27038,13 @@
       <c r="B50" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="C50" s="297">
+      <c r="C50" s="298">
         <f>C140</f>
         <v>0</v>
       </c>
-      <c r="D50" s="298"/>
-      <c r="E50" s="298"/>
-      <c r="F50" s="299"/>
+      <c r="D50" s="299"/>
+      <c r="E50" s="299"/>
+      <c r="F50" s="300"/>
       <c r="G50" s="124"/>
       <c r="H50" s="124"/>
       <c r="I50" s="124"/>
@@ -27378,83 +27389,83 @@
       </c>
       <c r="C60" s="75" t="str">
         <f>' Calculation'!B11</f>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="D60" s="75" t="str">
         <f t="shared" ref="D60:V60" si="20">C60</f>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="E60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="F60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="G60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="H60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="I60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="J60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="K60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="L60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="M60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="N60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="O60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="P60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="Q60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="R60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="S60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="T60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="U60" s="75" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="V60" s="175" t="str">
         <f t="shared" si="20"/>
-        <v>Raleigh, NC</v>
+        <v>Dallas, TX</v>
       </c>
       <c r="W60" s="126"/>
       <c r="X60" s="126"/>
@@ -27470,7 +27481,7 @@
       </c>
       <c r="C61" s="75" t="str">
         <f>' Calculation'!B12</f>
-        <v>Office space</v>
+        <v>Bars, cocktail lounges</v>
       </c>
       <c r="D61" s="75" t="s">
         <v>83</v>
@@ -27543,83 +27554,83 @@
       </c>
       <c r="C62" s="76">
         <f>' Calculation'!B13</f>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="D62" s="76">
         <f t="shared" ref="D62:V62" si="21">C62</f>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="E62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="F62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="G62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="H62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="I62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="J62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="K62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="L62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="M62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="N62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="O62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="P62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="Q62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="R62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="S62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="T62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="U62" s="76">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="V62" s="176">
         <f t="shared" si="21"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="W62" s="126"/>
       <c r="X62" s="126"/>
@@ -27635,83 +27646,83 @@
       </c>
       <c r="C63" s="76">
         <f>' Calculation'!B14</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="76">
         <f t="shared" ref="D63:V63" si="22">C63</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U63" s="76">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V63" s="176">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W63" s="126"/>
       <c r="X63" s="126"/>
@@ -27727,83 +27738,83 @@
       </c>
       <c r="C64" s="76">
         <f>' Calculation'!B15</f>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="D64" s="76">
         <f t="shared" ref="D64:V64" si="23">C64</f>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="E64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="F64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="G64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="H64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="I64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="J64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="K64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="L64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="M64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="N64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="O64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="P64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="Q64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="R64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="S64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="T64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="U64" s="76">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="V64" s="176">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="W64" s="126"/>
       <c r="X64" s="126"/>
@@ -27819,83 +27830,83 @@
       </c>
       <c r="C65" s="76">
         <f>' Calculation'!B16</f>
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="D65" s="76">
         <f t="shared" ref="D65:V65" si="24">D62</f>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="E65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="F65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="G65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="H65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="I65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="J65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="K65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="L65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="M65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="N65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="O65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="P65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="Q65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="R65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="S65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="T65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="U65" s="76">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="V65" s="176">
         <f t="shared" si="24"/>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="W65" s="126"/>
       <c r="X65" s="126"/>
@@ -28079,83 +28090,83 @@
       </c>
       <c r="C68" s="82">
         <f>' Calculation'!B19</f>
-        <v>5666.666666666667</v>
+        <v>1600</v>
       </c>
       <c r="D68" s="82">
         <f>IF(D67="VRP",(D64*VLOOKUP(D61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+D62*VLOOKUP(D61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/D66,IF(D67="VRP+30%",((D64*VLOOKUP(D61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+D62*VLOOKUP(D61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/D66)*1.3,IF(D67="IAQP",D62*0.05,IF(D67="100% OA",D65,"Enter Value"))))</f>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="E68" s="82">
         <f>IF(E67="VRP",(E64*VLOOKUP(E61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+E62*VLOOKUP(E61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/E66,IF(E67="VRP+30%",((E64*VLOOKUP(E61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+E62*VLOOKUP(E61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/E66)*1.3,IF(E67="IAQP",E62*0.05,IF(E67="100% OA",E65,"Enter Value"))))</f>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="F68" s="82">
         <f>IF(F67="VRP",(F64*VLOOKUP(F61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+F62*VLOOKUP(F61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/F66,IF(F67="VRP+30%",((F64*VLOOKUP(F61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+F62*VLOOKUP(F61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/F66)*1.3,IF(F67="IAQP",F62*0.05,IF(F67="100% OA",F65,"Enter Value"))))</f>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="G68" s="82">
         <f>IF(G67="VRP",(G64*VLOOKUP(G61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+G62*VLOOKUP(G61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/G66,IF(G67="VRP+30%",((G64*VLOOKUP(G61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+G62*VLOOKUP(G61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/G66)*1.3,IF(G67="IAQP",G62*0.05,IF(G67="100% OA",G65,"Enter Value"))))</f>
-        <v>50000</v>
+        <v>5500</v>
       </c>
       <c r="H68" s="82">
         <f>IF(H67="VRP",(H64*VLOOKUP(H61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+H62*VLOOKUP(H61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/H66,IF(H67="VRP+30%",((H64*VLOOKUP(H61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+H62*VLOOKUP(H61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/H66)*1.3,IF(H67="IAQP",H62*0.05,IF(H67="100% OA",H65,"Enter Value"))))</f>
-        <v>7366.666666666667</v>
+        <v>814.66666666666663</v>
       </c>
       <c r="I68" s="82">
         <f>IF(I67="VRP",(I64*VLOOKUP(I61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+I62*VLOOKUP(I61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/I66,IF(I67="VRP+30%",((I64*VLOOKUP(I61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+I62*VLOOKUP(I61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/I66)*1.3,IF(I67="IAQP",I62*0.05,IF(I67="100% OA",I65,"Enter Value"))))</f>
-        <v>7366.666666666667</v>
+        <v>814.66666666666663</v>
       </c>
       <c r="J68" s="82">
         <f>IF(J67="VRP",(J64*VLOOKUP(J61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+J62*VLOOKUP(J61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/J66,IF(J67="VRP+30%",((J64*VLOOKUP(J61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+J62*VLOOKUP(J61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/J66)*1.3,IF(J67="IAQP",J62*0.05,IF(J67="100% OA",J65,"Enter Value"))))</f>
-        <v>7366.666666666667</v>
+        <v>814.66666666666663</v>
       </c>
       <c r="K68" s="82">
         <f>IF(K67="VRP",(K64*VLOOKUP(K61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+K62*VLOOKUP(K61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/K66,IF(K67="VRP+30%",((K64*VLOOKUP(K61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+K62*VLOOKUP(K61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/K66)*1.3,IF(K67="IAQP",K62*0.05,IF(K67="100% OA",K65,"Enter Value"))))</f>
-        <v>7366.666666666667</v>
+        <v>814.66666666666663</v>
       </c>
       <c r="L68" s="82">
         <f>IF(L67="VRP",(L64*VLOOKUP(L61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+L62*VLOOKUP(L61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/L66,IF(L67="VRP+30%",((L64*VLOOKUP(L61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+L62*VLOOKUP(L61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/L66)*1.3,IF(L67="IAQP",L62*0.05,IF(L67="100% OA",L65,"Enter Value"))))</f>
-        <v>5666.666666666667</v>
+        <v>626.66666666666663</v>
       </c>
       <c r="M68" s="82">
         <f>IF(M67="VRP",(M64*VLOOKUP(M61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+M62*VLOOKUP(M61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/M66,IF(M67="VRP+30%",((M64*VLOOKUP(M61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+M62*VLOOKUP(M61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/M66)*1.3,IF(M67="IAQP",M62*0.05,IF(M67="100% OA",M65,"Enter Value"))))</f>
-        <v>5666.666666666667</v>
+        <v>626.66666666666663</v>
       </c>
       <c r="N68" s="82">
         <f>IF(N67="VRP",(N64*VLOOKUP(N61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+N62*VLOOKUP(N61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/N66,IF(N67="VRP+30%",((N64*VLOOKUP(N61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+N62*VLOOKUP(N61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/N66)*1.3,IF(N67="IAQP",N62*0.05,IF(N67="100% OA",N65,"Enter Value"))))</f>
-        <v>5666.666666666667</v>
+        <v>626.66666666666663</v>
       </c>
       <c r="O68" s="82">
         <f>IF(O67="VRP",(O64*VLOOKUP(O61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+O62*VLOOKUP(O61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/O66,IF(O67="VRP+30%",((O64*VLOOKUP(O61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+O62*VLOOKUP(O61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/O66)*1.3,IF(O67="IAQP",O62*0.05,IF(O67="100% OA",O65,"Enter Value"))))</f>
-        <v>5666.666666666667</v>
+        <v>626.66666666666663</v>
       </c>
       <c r="P68" s="82">
         <f>IF(P67="VRP",(P64*VLOOKUP(P61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+P62*VLOOKUP(P61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/P66,IF(P67="VRP+30%",((P64*VLOOKUP(P61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+P62*VLOOKUP(P61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/P66)*1.3,IF(P67="IAQP",P62*0.05,IF(P67="100% OA",P65,"Enter Value"))))</f>
-        <v>2500</v>
+        <v>275</v>
       </c>
       <c r="Q68" s="82">
         <f>IF(Q67="VRP",(Q64*VLOOKUP(Q61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+Q62*VLOOKUP(Q61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/Q66,IF(Q67="VRP+30%",((Q64*VLOOKUP(Q61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+Q62*VLOOKUP(Q61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/Q66)*1.3,IF(Q67="IAQP",Q62*0.05,IF(Q67="100% OA",Q65,"Enter Value"))))</f>
-        <v>2500</v>
+        <v>275</v>
       </c>
       <c r="R68" s="82">
         <f>IF(R67="VRP",(R64*VLOOKUP(R61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+R62*VLOOKUP(R61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/R66,IF(R67="VRP+30%",((R64*VLOOKUP(R61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+R62*VLOOKUP(R61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/R66)*1.3,IF(R67="IAQP",R62*0.05,IF(R67="100% OA",R65,"Enter Value"))))</f>
-        <v>2500</v>
+        <v>275</v>
       </c>
       <c r="S68" s="82">
         <f>IF(S67="VRP",(S64*VLOOKUP(S61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+S62*VLOOKUP(S61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/S66,IF(S67="VRP+30%",((S64*VLOOKUP(S61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+S62*VLOOKUP(S61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/S66)*1.3,IF(S67="IAQP",S62*0.05,IF(S67="100% OA",S65,"Enter Value"))))</f>
-        <v>2500</v>
+        <v>275</v>
       </c>
       <c r="T68" s="82">
         <f>IF(T67="VRP",(T64*VLOOKUP(T61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+T62*VLOOKUP(T61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/T66,IF(T67="VRP+30%",((T64*VLOOKUP(T61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,2,0)+T62*VLOOKUP(T61,'Table 3 - ASHRAE 62.1 OA Rates'!$A$3:$C$82,3,0))/T66)*1.3,IF(T67="IAQP",T62*0.05,IF(T67="100% OA",T65,' Calculation'!B19))))</f>
-        <v>5666.666666666667</v>
+        <v>626.66666666666663</v>
       </c>
       <c r="U68" s="82">
         <f>T68</f>
-        <v>5666.666666666667</v>
+        <v>626.66666666666663</v>
       </c>
       <c r="V68" s="180">
         <f>T68</f>
-        <v>5666.666666666667</v>
+        <v>626.66666666666663</v>
       </c>
       <c r="W68" s="126"/>
       <c r="X68" s="126"/>
@@ -28171,83 +28182,83 @@
       </c>
       <c r="C69" s="79">
         <f>' Calculation'!B20</f>
-        <v>0.68</v>
+        <v>1.9393939393939394</v>
       </c>
       <c r="D69" s="79">
         <f t="shared" ref="D69:V69" si="26">(D68/(D62*D63))*60</f>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="E69" s="79">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F69" s="79">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="G69" s="79">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="H69" s="79">
         <f t="shared" si="26"/>
-        <v>0.88400000000000012</v>
+        <v>0.98747474747474739</v>
       </c>
       <c r="I69" s="79">
         <f t="shared" si="26"/>
-        <v>0.88400000000000012</v>
+        <v>0.98747474747474739</v>
       </c>
       <c r="J69" s="79">
         <f t="shared" si="26"/>
-        <v>0.88400000000000012</v>
+        <v>0.98747474747474739</v>
       </c>
       <c r="K69" s="79">
         <f t="shared" si="26"/>
-        <v>0.88400000000000012</v>
+        <v>0.98747474747474739</v>
       </c>
       <c r="L69" s="79">
         <f t="shared" si="26"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="M69" s="79">
         <f t="shared" si="26"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="N69" s="79">
         <f t="shared" si="26"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="O69" s="79">
         <f t="shared" si="26"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="P69" s="79">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q69" s="79">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R69" s="79">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="S69" s="79">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T69" s="79">
         <f t="shared" si="26"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="U69" s="79">
         <f t="shared" si="26"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="V69" s="177">
         <f t="shared" si="26"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="W69" s="126"/>
       <c r="X69" s="126"/>
@@ -28931,83 +28942,83 @@
       </c>
       <c r="C79" s="75">
         <f>' Calculation'!B30</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="D79" s="75">
         <f>VLOOKUP(D60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="E79" s="75">
         <f>VLOOKUP(E60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="F79" s="75">
         <f>VLOOKUP(F60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="G79" s="75">
         <f>VLOOKUP(G60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="H79" s="75">
         <f>VLOOKUP(H60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="I79" s="75">
         <f>VLOOKUP(I60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="J79" s="75">
         <f>VLOOKUP(J60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="K79" s="75">
         <f>VLOOKUP(K60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="L79" s="75">
         <f>VLOOKUP(L60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="M79" s="75">
         <f>VLOOKUP(M60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="N79" s="75">
         <f>VLOOKUP(N60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="O79" s="75">
         <f>VLOOKUP(O60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="P79" s="75">
         <f>VLOOKUP(P60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="Q79" s="75">
         <f>VLOOKUP(Q60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="R79" s="75">
         <f>VLOOKUP(R60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="S79" s="75">
         <f>VLOOKUP(S60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="T79" s="75">
         <f>VLOOKUP(T60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="U79" s="75">
         <f>VLOOKUP(U60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="V79" s="175">
         <f>VLOOKUP(V60,'Table 1 - Operational Info'!$B$5:$N$24,4,0)</f>
-        <v>9.3100000000000002E-2</v>
+        <v>0.13457776509291119</v>
       </c>
       <c r="W79" s="126"/>
       <c r="X79" s="126"/>
@@ -29023,83 +29034,83 @@
       </c>
       <c r="C80" s="75">
         <f>' Calculation'!B31</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="D80" s="75">
         <f>IF(D73="Electricity",((VLOOKUP(D60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(D73="Steam",((VLOOKUP(D60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(D60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="E80" s="75">
         <f>IF(E73="Electricity",((VLOOKUP(E60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(E73="Steam",((VLOOKUP(E60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(E60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="F80" s="75">
         <f>IF(F73="Electricity",((VLOOKUP(F60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(F73="Steam",((VLOOKUP(F60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(F60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="G80" s="75">
         <f>IF(G73="Electricity",((VLOOKUP(G60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(G73="Steam",((VLOOKUP(G60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(G60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="H80" s="75">
         <f>IF(H73="Electricity",((VLOOKUP(H60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(H73="Steam",((VLOOKUP(H60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(H60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="I80" s="75">
         <f>IF(I73="Electricity",((VLOOKUP(I60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(I73="Steam",((VLOOKUP(I60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(I60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="J80" s="75">
         <f>IF(J73="Electricity",((VLOOKUP(J60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(J73="Steam",((VLOOKUP(J60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(J60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="K80" s="75">
         <f>IF(K73="Electricity",((VLOOKUP(K60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(K73="Steam",((VLOOKUP(K60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(K60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="L80" s="75">
         <f>IF(L73="Electricity",((VLOOKUP(L60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(L73="Steam",((VLOOKUP(L60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(L60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="M80" s="75">
         <f>IF(M73="Electricity",((VLOOKUP(M60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(M73="Steam",((VLOOKUP(M60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(M60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="N80" s="75">
         <f>IF(N73="Electricity",((VLOOKUP(N60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(N73="Steam",((VLOOKUP(N60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(N60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="O80" s="75">
         <f>IF(O73="Electricity",((VLOOKUP(O60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(O73="Steam",((VLOOKUP(O60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(O60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="P80" s="75">
         <f>IF(P73="Electricity",((VLOOKUP(P60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(P73="Steam",((VLOOKUP(P60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(P60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="Q80" s="75">
         <f>IF(Q73="Electricity",((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(Q73="Steam",((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="R80" s="75">
         <f>IF(R73="Electricity",((VLOOKUP(R60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(R73="Steam",((VLOOKUP(R60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(R60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="S80" s="75">
         <f>IF(S73="Electricity",((VLOOKUP(S60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(S73="Steam",((VLOOKUP(S60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(S60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="T80" s="75">
         <f>IF(T73="Electricity",((VLOOKUP(T60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(T73="Steam",((VLOOKUP(T60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(T60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="U80" s="75">
         <f>IF(U73="Electricity",((VLOOKUP(U60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(U73="Steam",((VLOOKUP(U60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(U60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="V80" s="175">
         <f>IF(V73="Electricity",((VLOOKUP(V60,'Table 1 - Operational Info'!$B$5:$N$24,4,0))),IF(V73="Steam",((VLOOKUP(V60,'Table 1 - Operational Info'!$B$5:$N$24,11,0))),((VLOOKUP(V60,'Table 1 - Operational Info'!$B$5:$N$24,10,0)))))</f>
-        <v>0.84474445515911289</v>
+        <v>0.76465764657646573</v>
       </c>
       <c r="W80" s="126"/>
       <c r="X80" s="126"/>
@@ -29592,7 +29603,7 @@
       </c>
       <c r="C89" s="75" t="str">
         <f>' Calculation'!B40</f>
-        <v>HEPA</v>
+        <v>MERV 16</v>
       </c>
       <c r="D89" s="75" t="str">
         <f t="shared" ref="D89:G89" si="35">C18</f>
@@ -29608,7 +29619,7 @@
       </c>
       <c r="G89" s="75" t="str">
         <f t="shared" si="35"/>
-        <v>HEPA</v>
+        <v>MERV 16</v>
       </c>
       <c r="H89" s="75" t="str">
         <f t="shared" ref="H89:K89" si="36">C18</f>
@@ -29624,7 +29635,7 @@
       </c>
       <c r="K89" s="75" t="str">
         <f t="shared" si="36"/>
-        <v>HEPA</v>
+        <v>MERV 16</v>
       </c>
       <c r="L89" s="75" t="str">
         <f t="shared" ref="L89:O89" si="37">C18</f>
@@ -29640,7 +29651,7 @@
       </c>
       <c r="O89" s="75" t="str">
         <f t="shared" si="37"/>
-        <v>HEPA</v>
+        <v>MERV 16</v>
       </c>
       <c r="P89" s="75" t="str">
         <f t="shared" ref="P89:S89" si="38">C18</f>
@@ -29656,7 +29667,7 @@
       </c>
       <c r="S89" s="75" t="str">
         <f t="shared" si="38"/>
-        <v>HEPA</v>
+        <v>MERV 16</v>
       </c>
       <c r="T89" s="75" t="str">
         <f t="shared" ref="T89:V89" si="39">C18</f>
@@ -29684,7 +29695,7 @@
       </c>
       <c r="C90" s="184">
         <f>' Calculation'!B41</f>
-        <v>1.5029751000000002</v>
+        <v>0.63092805000000007</v>
       </c>
       <c r="D90" s="184">
         <f>VLOOKUP(D89,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
@@ -29700,7 +29711,7 @@
       </c>
       <c r="G90" s="184">
         <f>VLOOKUP(G89,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
-        <v>1.5029751000000002</v>
+        <v>0.63092805000000007</v>
       </c>
       <c r="H90" s="184">
         <f>VLOOKUP(H89,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
@@ -29716,7 +29727,7 @@
       </c>
       <c r="K90" s="184">
         <f>VLOOKUP(K89,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
-        <v>1.5029751000000002</v>
+        <v>0.63092805000000007</v>
       </c>
       <c r="L90" s="184">
         <f>VLOOKUP(L89,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
@@ -29732,7 +29743,7 @@
       </c>
       <c r="O90" s="184">
         <f>VLOOKUP(O89,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
-        <v>1.5029751000000002</v>
+        <v>0.63092805000000007</v>
       </c>
       <c r="P90" s="184">
         <f>VLOOKUP(P89,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
@@ -29748,7 +29759,7 @@
       </c>
       <c r="S90" s="184">
         <f>VLOOKUP(S89,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
-        <v>1.5029751000000002</v>
+        <v>0.63092805000000007</v>
       </c>
       <c r="T90" s="184">
         <f>VLOOKUP(T89,'Table 2 - Filtration Info'!$B$3:$H$11,6,0)</f>
@@ -30198,7 +30209,7 @@
       </c>
       <c r="C96" s="79">
         <f>' Calculation'!B47</f>
-        <v>5.3146800000000001</v>
+        <v>3.915151515151515</v>
       </c>
       <c r="D96" s="79">
         <f>(((D65-D68)/(D62*D63))*60)*VLOOKUP(D89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
@@ -30218,63 +30229,63 @@
       </c>
       <c r="H96" s="79">
         <f>(((H65-H68)/(H62*H63))*60)*VLOOKUP(H89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>2.2510400000000002</v>
+        <v>2.498844444444444</v>
       </c>
       <c r="I96" s="79">
         <f>(((I65-I68)/(I62*I63))*60)*VLOOKUP(I89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>3.6835200000000001</v>
+        <v>4.0890181818181812</v>
       </c>
       <c r="J96" s="79">
         <f>(((J65-J68)/(J62*J63))*60)*VLOOKUP(J89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>4.4509200000000009</v>
+        <v>4.9408969696969693</v>
       </c>
       <c r="K96" s="79">
         <f>(((K65-K68)/(K62*K63))*60)*VLOOKUP(K89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>5.1108840000000004</v>
+        <v>5.3952323232323227</v>
       </c>
       <c r="L96" s="79">
         <f>(((L65-L68)/(L62*L63))*60)*VLOOKUP(L89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>2.3408000000000002</v>
+        <v>2.5991111111111111</v>
       </c>
       <c r="M96" s="79">
         <f>(((M65-M68)/(M62*M63))*60)*VLOOKUP(M89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>3.8304</v>
+        <v>4.2530909090909086</v>
       </c>
       <c r="N96" s="79">
         <f>(((N65-N68)/(N62*N63))*60)*VLOOKUP(N89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>4.6284000000000001</v>
+        <v>5.1391515151515152</v>
       </c>
       <c r="O96" s="79">
         <f>(((O65-O68)/(O62*O63))*60)*VLOOKUP(O89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>5.3146800000000001</v>
+        <v>5.6117171717171717</v>
       </c>
       <c r="P96" s="79">
         <f>(((P65-P68)/(P62*P63))*60)*VLOOKUP(P89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>2.508</v>
+        <v>2.7866666666666666</v>
       </c>
       <c r="Q96" s="79">
         <f>(((Q65-Q68)/(Q62*Q63))*60)*VLOOKUP(Q89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>4.1040000000000001</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="R96" s="79">
         <f>(((R65-R68)/(R62*R63))*60)*VLOOKUP(R89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>4.9590000000000005</v>
+        <v>5.51</v>
       </c>
       <c r="S96" s="79">
         <f>(((S65-S68)/(S62*S63))*60)*VLOOKUP(S89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>5.6943000000000001</v>
+        <v>6.0166666666666657</v>
       </c>
       <c r="T96" s="79">
         <f>(((T65-T68)/(T62*T63))*60)*VLOOKUP(T89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>2.3408000000000002</v>
+        <v>2.5991111111111111</v>
       </c>
       <c r="U96" s="79">
         <f>(((U65-U68)/(U62*U63))*60)*VLOOKUP(U89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>3.8304</v>
+        <v>4.2530909090909086</v>
       </c>
       <c r="V96" s="79">
         <f>(((V65-V68)/(V62*V63))*60)*VLOOKUP(V89,'Table 2 - Filtration Info'!$B$3:$I$11,8,0)</f>
-        <v>4.6284000000000001</v>
+        <v>5.1391515151515152</v>
       </c>
       <c r="W96" s="126"/>
       <c r="X96" s="126"/>
@@ -30450,83 +30461,83 @@
       </c>
       <c r="C100" s="75">
         <f>' Calculation'!B51</f>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="D100" s="75">
         <f t="shared" si="42"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="E100" s="75">
         <f t="shared" ref="E100:V100" si="43">D100</f>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="F100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="G100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="H100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="I100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="J100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="K100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="L100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="M100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="N100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="O100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="P100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="Q100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="R100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="S100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="T100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="U100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="V100" s="75">
         <f t="shared" si="43"/>
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="W100" s="126"/>
       <c r="X100" s="126"/>
@@ -30726,83 +30737,83 @@
       </c>
       <c r="C103" s="82">
         <f>' Calculation'!B54</f>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="D103" s="82">
         <f t="shared" ref="D103:V103" si="46">((D102*D100)/(D62*D63))*60</f>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="E103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="F103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="G103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="H103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="I103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="J103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="K103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="L103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="N103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="O103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="P103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="Q103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="R103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="S103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="T103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="U103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="V103" s="82">
         <f t="shared" si="46"/>
-        <v>1.2</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="W103" s="126"/>
       <c r="X103" s="126"/>
@@ -31346,83 +31357,83 @@
       </c>
       <c r="C111" s="95">
         <f>IF(C76&lt;168,C68*(((VLOOKUP(C60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(C83="Yes",1-C84,1)))/(C77/3))*(C76/72),C68*(((VLOOKUP(C60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(C83="Yes",1-C84,1)))/(C77/3))*(C76/168))</f>
-        <v>50779.000000000007</v>
+        <v>18390.400000000001</v>
       </c>
       <c r="D111" s="95">
         <f>IF(D76&lt;168,D68*(((VLOOKUP(D60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(D83="Yes",1-D84,1)))/(D77/3))*(D76/72),D68*(((VLOOKUP(D60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(D83="Yes",1-D84,1)))/(D77/3))*(D76/168))</f>
-        <v>448050</v>
+        <v>63217</v>
       </c>
       <c r="E111" s="95">
         <f>IF(E76&lt;168,E68*(((VLOOKUP(E60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(E83="Yes",1-E84,1)))/(E77/3))*(E76/72),E68*(((VLOOKUP(E60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(E83="Yes",1-E84,1)))/(E77/3))*(E76/168))</f>
-        <v>448050</v>
+        <v>63217</v>
       </c>
       <c r="F111" s="95">
         <f>IF(F76&lt;168,F68*(((VLOOKUP(F60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(F83="Yes",1-F84,1)))/(F77/3))*(F76/72),F68*(((VLOOKUP(F60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(F83="Yes",1-F84,1)))/(F77/3))*(F76/168))</f>
-        <v>448050</v>
+        <v>63217</v>
       </c>
       <c r="G111" s="95">
         <f>IF(G76&lt;168,G68*(((VLOOKUP(G60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(G83="Yes",1-G84,1)))/(G77/3))*(G76/72),G68*(((VLOOKUP(G60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(G83="Yes",1-G84,1)))/(G77/3))*(G76/168))</f>
-        <v>448050</v>
+        <v>63217</v>
       </c>
       <c r="H111" s="95">
         <f>IF(H76&lt;168,H68*(((VLOOKUP(H60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(H83="Yes",1-H84,1)))/(H77/3))*(H76/72),H68*(((VLOOKUP(H60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(H83="Yes",1-H84,1)))/(H77/3))*(H76/168))</f>
-        <v>66012.700000000012</v>
+        <v>9363.7786666666652</v>
       </c>
       <c r="I111" s="95">
         <f>IF(I76&lt;168,I68*(((VLOOKUP(I60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(I83="Yes",1-I84,1)))/(I77/3))*(I76/72),I68*(((VLOOKUP(I60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(I83="Yes",1-I84,1)))/(I77/3))*(I76/168))</f>
-        <v>66012.700000000012</v>
+        <v>9363.7786666666652</v>
       </c>
       <c r="J111" s="95">
         <f>IF(J76&lt;168,J68*(((VLOOKUP(J60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(J83="Yes",1-J84,1)))/(J77/3))*(J76/72),J68*(((VLOOKUP(J60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(J83="Yes",1-J84,1)))/(J77/3))*(J76/168))</f>
-        <v>66012.700000000012</v>
+        <v>9363.7786666666652</v>
       </c>
       <c r="K111" s="95">
         <f>IF(K76&lt;168,K68*(((VLOOKUP(K60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(K83="Yes",1-K84,1)))/(K77/3))*(K76/72),K68*(((VLOOKUP(K60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(K83="Yes",1-K84,1)))/(K77/3))*(K76/168))</f>
-        <v>66012.700000000012</v>
+        <v>9363.7786666666652</v>
       </c>
       <c r="L111" s="95">
         <f>IF(L76&lt;168,L68*(((VLOOKUP(L60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(L83="Yes",1-L84,1)))/(L77/3))*(L76/72),L68*(((VLOOKUP(L60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(L83="Yes",1-L84,1)))/(L77/3))*(L76/168))</f>
-        <v>50779.000000000007</v>
+        <v>7202.9066666666658</v>
       </c>
       <c r="M111" s="95">
         <f>IF(M76&lt;168,M68*(((VLOOKUP(M60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(M83="Yes",1-M84,1)))/(M77/3))*(M76/72),M68*(((VLOOKUP(M60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(M83="Yes",1-M84,1)))/(M77/3))*(M76/168))</f>
-        <v>50779.000000000007</v>
+        <v>7202.9066666666658</v>
       </c>
       <c r="N111" s="95">
         <f>IF(N76&lt;168,N68*(((VLOOKUP(N60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(N83="Yes",1-N84,1)))/(N77/3))*(N76/72),N68*(((VLOOKUP(N60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(N83="Yes",1-N84,1)))/(N77/3))*(N76/168))</f>
-        <v>50779.000000000007</v>
+        <v>7202.9066666666658</v>
       </c>
       <c r="O111" s="95">
         <f>IF(O76&lt;168,O68*(((VLOOKUP(O60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(O83="Yes",1-O84,1)))/(O77/3))*(O76/72),O68*(((VLOOKUP(O60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(O83="Yes",1-O84,1)))/(O77/3))*(O76/168))</f>
-        <v>50779.000000000007</v>
+        <v>7202.9066666666658</v>
       </c>
       <c r="P111" s="95">
         <f>IF(P76&lt;168,P68*(((VLOOKUP(P60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(P83="Yes",1-P84,1)))/(P77/3))*(P76/72),P68*(((VLOOKUP(P60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(P83="Yes",1-P84,1)))/(P77/3))*(P76/168))</f>
-        <v>22402.5</v>
+        <v>3160.85</v>
       </c>
       <c r="Q111" s="95">
         <f>IF(Q76&lt;168,Q68*(((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(Q83="Yes",1-Q84,1)))/(Q77/3))*(Q76/72),Q68*(((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(Q83="Yes",1-Q84,1)))/(Q77/3))*(Q76/168))</f>
-        <v>22402.5</v>
+        <v>3160.85</v>
       </c>
       <c r="R111" s="95">
         <f>IF(R76&lt;168,R68*(((VLOOKUP(R60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(R83="Yes",1-R84,1)))/(R77/3))*(R76/72),R68*(((VLOOKUP(R60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(R83="Yes",1-R84,1)))/(R77/3))*(R76/168))</f>
-        <v>22402.5</v>
+        <v>3160.85</v>
       </c>
       <c r="S111" s="95">
         <f>IF(S76&lt;168,S68*(((VLOOKUP(S60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(S83="Yes",1-S84,1)))/(S77/3))*(S76/72),S68*(((VLOOKUP(S60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(S83="Yes",1-S84,1)))/(S77/3))*(S76/168))</f>
-        <v>22402.5</v>
+        <v>3160.85</v>
       </c>
       <c r="T111" s="95">
         <f>IF(T76&lt;168,T68*(((VLOOKUP(T60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(T83="Yes",1-T84,1)))/(T77/3))*(T76/72),T68*(((VLOOKUP(T60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(T83="Yes",1-T84,1)))/(T77/3))*(T76/168))</f>
-        <v>50779.000000000007</v>
+        <v>7202.9066666666658</v>
       </c>
       <c r="U111" s="95">
         <f>IF(U76&lt;168,U68*(((VLOOKUP(U60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(U83="Yes",1-U84,1)))/(U77/3))*(U76/72),U68*(((VLOOKUP(U60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(U83="Yes",1-U84,1)))/(U77/3))*(U76/168))</f>
-        <v>50779.000000000007</v>
+        <v>7202.9066666666658</v>
       </c>
       <c r="V111" s="95">
         <f>IF(V76&lt;168,V68*(((VLOOKUP(V60,'Table 1 - Operational Info'!$B$5:$N$24,3,0))*(IF(V83="Yes",1-V84,1)))/(V77/3))*(V76/72),V68*(((VLOOKUP(V60,'Table 1 - Operational Info'!$B$29:$N$48,3,0))*(IF(V83="Yes",1-V84,1)))/(V77/3))*(V76/168))</f>
-        <v>50779.000000000007</v>
+        <v>7202.9066666666658</v>
       </c>
       <c r="W111" s="126"/>
       <c r="X111" s="126"/>
@@ -31438,83 +31449,83 @@
       </c>
       <c r="C112" s="95">
         <f t="shared" ref="C112:V112" si="52">C111*C79</f>
-        <v>4727.5249000000003</v>
+        <v>2474.9389311646742</v>
       </c>
       <c r="D112" s="95">
         <f t="shared" si="52"/>
-        <v>41713.455000000002</v>
+        <v>8507.6025758785672</v>
       </c>
       <c r="E112" s="95">
         <f t="shared" si="52"/>
-        <v>41713.455000000002</v>
+        <v>8507.6025758785672</v>
       </c>
       <c r="F112" s="95">
         <f t="shared" si="52"/>
-        <v>41713.455000000002</v>
+        <v>8507.6025758785672</v>
       </c>
       <c r="G112" s="95">
         <f t="shared" si="52"/>
-        <v>41713.455000000002</v>
+        <v>8507.6025758785672</v>
       </c>
       <c r="H112" s="95">
         <f t="shared" si="52"/>
-        <v>6145.7823700000008</v>
+        <v>1260.1564057846797</v>
       </c>
       <c r="I112" s="95">
         <f t="shared" si="52"/>
-        <v>6145.7823700000008</v>
+        <v>1260.1564057846797</v>
       </c>
       <c r="J112" s="95">
         <f t="shared" si="52"/>
-        <v>6145.7823700000008</v>
+        <v>1260.1564057846797</v>
       </c>
       <c r="K112" s="95">
         <f t="shared" si="52"/>
-        <v>6145.7823700000008</v>
+        <v>1260.1564057846797</v>
       </c>
       <c r="L112" s="95">
         <f t="shared" si="52"/>
-        <v>4727.5249000000003</v>
+        <v>969.35108137283055</v>
       </c>
       <c r="M112" s="95">
         <f t="shared" si="52"/>
-        <v>4727.5249000000003</v>
+        <v>969.35108137283055</v>
       </c>
       <c r="N112" s="95">
         <f t="shared" si="52"/>
-        <v>4727.5249000000003</v>
+        <v>969.35108137283055</v>
       </c>
       <c r="O112" s="95">
         <f t="shared" si="52"/>
-        <v>4727.5249000000003</v>
+        <v>969.35108137283055</v>
       </c>
       <c r="P112" s="95">
         <f t="shared" si="52"/>
-        <v>2085.6727500000002</v>
+        <v>425.38012879392835</v>
       </c>
       <c r="Q112" s="95">
         <f t="shared" si="52"/>
-        <v>2085.6727500000002</v>
+        <v>425.38012879392835</v>
       </c>
       <c r="R112" s="95">
         <f t="shared" si="52"/>
-        <v>2085.6727500000002</v>
+        <v>425.38012879392835</v>
       </c>
       <c r="S112" s="95">
         <f t="shared" si="52"/>
-        <v>2085.6727500000002</v>
+        <v>425.38012879392835</v>
       </c>
       <c r="T112" s="95">
         <f t="shared" si="52"/>
-        <v>4727.5249000000003</v>
+        <v>969.35108137283055</v>
       </c>
       <c r="U112" s="95">
         <f t="shared" si="52"/>
-        <v>4727.5249000000003</v>
+        <v>969.35108137283055</v>
       </c>
       <c r="V112" s="95">
         <f t="shared" si="52"/>
-        <v>4727.5249000000003</v>
+        <v>969.35108137283055</v>
       </c>
       <c r="W112" s="126"/>
       <c r="X112" s="126"/>
@@ -31530,83 +31541,83 @@
       </c>
       <c r="C113" s="96">
         <f>IF(C76&lt;168,(IF(C73="Electricity",((VLOOKUP(C60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(C83="Yes",1-C85,1))),IF(C73="Steam",((VLOOKUP(C60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(C83="Yes",1-C85,1))),((VLOOKUP(C60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(C83="Yes",1-C85,1))))))*(C76/72)*C68/(C78),(IF(C73="Electricity",((VLOOKUP(C60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(C83="Yes",1-C85,1))),IF(C73="Steam",((VLOOKUP(C60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(C83="Yes",1-C85,1))),((VLOOKUP(C60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(C83="Yes",1-C85,1))))))*(C76/168)*C68/(C78))</f>
-        <v>952.25386666666668</v>
+        <v>213.27503999999999</v>
       </c>
       <c r="D113" s="96">
         <f>IF(D76&lt;168,(IF(D73="Electricity",((VLOOKUP(D60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(D83="Yes",1-D85,1))),IF(D73="Steam",((VLOOKUP(D60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(D83="Yes",1-D85,1))),((VLOOKUP(D60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(D83="Yes",1-D85,1))))))*(D76/72)*D68/(D78),(IF(D73="Electricity",((VLOOKUP(D60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(D83="Yes",1-D85,1))),IF(D73="Steam",((VLOOKUP(D60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(D83="Yes",1-D85,1))),((VLOOKUP(D60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(D83="Yes",1-D85,1))))))*(D76/168)*D68/(D78))</f>
-        <v>8402.24</v>
+        <v>733.13294999999994</v>
       </c>
       <c r="E113" s="96">
         <f>IF(E76&lt;168,(IF(E73="Electricity",((VLOOKUP(E60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(E83="Yes",1-E85,1))),IF(E73="Steam",((VLOOKUP(E60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(E83="Yes",1-E85,1))),((VLOOKUP(E60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(E83="Yes",1-E85,1))))))*(E76/72)*E68/(E78),(IF(E73="Electricity",((VLOOKUP(E60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(E83="Yes",1-E85,1))),IF(E73="Steam",((VLOOKUP(E60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(E83="Yes",1-E85,1))),((VLOOKUP(E60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(E83="Yes",1-E85,1))))))*(E76/168)*E68/(E78))</f>
-        <v>8402.24</v>
+        <v>733.13294999999994</v>
       </c>
       <c r="F113" s="96">
         <f>IF(F76&lt;168,(IF(F73="Electricity",((VLOOKUP(F60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(F83="Yes",1-F85,1))),IF(F73="Steam",((VLOOKUP(F60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(F83="Yes",1-F85,1))),((VLOOKUP(F60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(F83="Yes",1-F85,1))))))*(F76/72)*F68/(F78),(IF(F73="Electricity",((VLOOKUP(F60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(F83="Yes",1-F85,1))),IF(F73="Steam",((VLOOKUP(F60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(F83="Yes",1-F85,1))),((VLOOKUP(F60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(F83="Yes",1-F85,1))))))*(F76/168)*F68/(F78))</f>
-        <v>8402.24</v>
+        <v>733.13294999999994</v>
       </c>
       <c r="G113" s="96">
         <f>IF(G76&lt;168,(IF(G73="Electricity",((VLOOKUP(G60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(G83="Yes",1-G85,1))),IF(G73="Steam",((VLOOKUP(G60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(G83="Yes",1-G85,1))),((VLOOKUP(G60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(G83="Yes",1-G85,1))))))*(G76/72)*G68/(G78),(IF(G73="Electricity",((VLOOKUP(G60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(G83="Yes",1-G85,1))),IF(G73="Steam",((VLOOKUP(G60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(G83="Yes",1-G85,1))),((VLOOKUP(G60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(G83="Yes",1-G85,1))))))*(G76/168)*G68/(G78))</f>
-        <v>8402.24</v>
+        <v>733.13294999999994</v>
       </c>
       <c r="H113" s="96">
         <f>IF(H76&lt;168,(IF(H73="Electricity",((VLOOKUP(H60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(H83="Yes",1-H85,1))),IF(H73="Steam",((VLOOKUP(H60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(H83="Yes",1-H85,1))),((VLOOKUP(H60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(H83="Yes",1-H85,1))))))*(H76/72)*H68/(H78),(IF(H73="Electricity",((VLOOKUP(H60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(H83="Yes",1-H85,1))),IF(H73="Steam",((VLOOKUP(H60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(H83="Yes",1-H85,1))),((VLOOKUP(H60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(H83="Yes",1-H85,1))))))*(H76/168)*H68/(H78))</f>
-        <v>1237.9300266666667</v>
+        <v>108.59254119999999</v>
       </c>
       <c r="I113" s="96">
         <f>IF(I76&lt;168,(IF(I73="Electricity",((VLOOKUP(I60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(I83="Yes",1-I85,1))),IF(I73="Steam",((VLOOKUP(I60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(I83="Yes",1-I85,1))),((VLOOKUP(I60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(I83="Yes",1-I85,1))))))*(I76/72)*I68/(I78),(IF(I73="Electricity",((VLOOKUP(I60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(I83="Yes",1-I85,1))),IF(I73="Steam",((VLOOKUP(I60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(I83="Yes",1-I85,1))),((VLOOKUP(I60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(I83="Yes",1-I85,1))))))*(I76/168)*I68/(I78))</f>
-        <v>1237.9300266666667</v>
+        <v>108.59254119999999</v>
       </c>
       <c r="J113" s="96">
         <f>IF(J76&lt;168,(IF(J73="Electricity",((VLOOKUP(J60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(J83="Yes",1-J85,1))),IF(J73="Steam",((VLOOKUP(J60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(J83="Yes",1-J85,1))),((VLOOKUP(J60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(J83="Yes",1-J85,1))))))*(J76/72)*J68/(J78),(IF(J73="Electricity",((VLOOKUP(J60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(J83="Yes",1-J85,1))),IF(J73="Steam",((VLOOKUP(J60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(J83="Yes",1-J85,1))),((VLOOKUP(J60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(J83="Yes",1-J85,1))))))*(J76/168)*J68/(J78))</f>
-        <v>1237.9300266666667</v>
+        <v>108.59254119999999</v>
       </c>
       <c r="K113" s="96">
         <f>IF(K76&lt;168,(IF(K73="Electricity",((VLOOKUP(K60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(K83="Yes",1-K85,1))),IF(K73="Steam",((VLOOKUP(K60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(K83="Yes",1-K85,1))),((VLOOKUP(K60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(K83="Yes",1-K85,1))))))*(K76/72)*K68/(K78),(IF(K73="Electricity",((VLOOKUP(K60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(K83="Yes",1-K85,1))),IF(K73="Steam",((VLOOKUP(K60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(K83="Yes",1-K85,1))),((VLOOKUP(K60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(K83="Yes",1-K85,1))))))*(K76/168)*K68/(K78))</f>
-        <v>1237.9300266666667</v>
+        <v>108.59254119999999</v>
       </c>
       <c r="L113" s="96">
         <f>IF(L76&lt;168,(IF(L73="Electricity",((VLOOKUP(L60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(L83="Yes",1-L85,1))),IF(L73="Steam",((VLOOKUP(L60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(L83="Yes",1-L85,1))),((VLOOKUP(L60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(L83="Yes",1-L85,1))))))*(L76/72)*L68/(L78),(IF(L73="Electricity",((VLOOKUP(L60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(L83="Yes",1-L85,1))),IF(L73="Steam",((VLOOKUP(L60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(L83="Yes",1-L85,1))),((VLOOKUP(L60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(L83="Yes",1-L85,1))))))*(L76/168)*L68/(L78))</f>
-        <v>952.25386666666668</v>
+        <v>83.532723999999988</v>
       </c>
       <c r="M113" s="96">
         <f>IF(M76&lt;168,(IF(M73="Electricity",((VLOOKUP(M60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(M83="Yes",1-M85,1))),IF(M73="Steam",((VLOOKUP(M60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(M83="Yes",1-M85,1))),((VLOOKUP(M60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(M83="Yes",1-M85,1))))))*(M76/72)*M68/(M78),(IF(M73="Electricity",((VLOOKUP(M60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(M83="Yes",1-M85,1))),IF(M73="Steam",((VLOOKUP(M60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(M83="Yes",1-M85,1))),((VLOOKUP(M60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(M83="Yes",1-M85,1))))))*(M76/168)*M68/(M78))</f>
-        <v>952.25386666666668</v>
+        <v>83.532723999999988</v>
       </c>
       <c r="N113" s="96">
         <f>IF(N76&lt;168,(IF(N73="Electricity",((VLOOKUP(N60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(N83="Yes",1-N85,1))),IF(N73="Steam",((VLOOKUP(N60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(N83="Yes",1-N85,1))),((VLOOKUP(N60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(N83="Yes",1-N85,1))))))*(N76/72)*N68/(N78),(IF(N73="Electricity",((VLOOKUP(N60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(N83="Yes",1-N85,1))),IF(N73="Steam",((VLOOKUP(N60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(N83="Yes",1-N85,1))),((VLOOKUP(N60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(N83="Yes",1-N85,1))))))*(N76/168)*N68/(N78))</f>
-        <v>952.25386666666668</v>
+        <v>83.532723999999988</v>
       </c>
       <c r="O113" s="96">
         <f>IF(O76&lt;168,(IF(O73="Electricity",((VLOOKUP(O60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(O83="Yes",1-O85,1))),IF(O73="Steam",((VLOOKUP(O60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(O83="Yes",1-O85,1))),((VLOOKUP(O60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(O83="Yes",1-O85,1))))))*(O76/72)*O68/(O78),(IF(O73="Electricity",((VLOOKUP(O60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(O83="Yes",1-O85,1))),IF(O73="Steam",((VLOOKUP(O60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(O83="Yes",1-O85,1))),((VLOOKUP(O60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(O83="Yes",1-O85,1))))))*(O76/168)*O68/(O78))</f>
-        <v>952.25386666666668</v>
+        <v>83.532723999999988</v>
       </c>
       <c r="P113" s="96">
         <f>IF(P76&lt;168,(IF(P73="Electricity",((VLOOKUP(P60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(P83="Yes",1-P85,1))),IF(P73="Steam",((VLOOKUP(P60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(P83="Yes",1-P85,1))),((VLOOKUP(P60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(P83="Yes",1-P85,1))))))*(P76/72)*P68/(P78),(IF(P73="Electricity",((VLOOKUP(P60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(P83="Yes",1-P85,1))),IF(P73="Steam",((VLOOKUP(P60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(P83="Yes",1-P85,1))),((VLOOKUP(P60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(P83="Yes",1-P85,1))))))*(P76/168)*P68/(P78))</f>
-        <v>420.11199999999997</v>
+        <v>36.656647499999998</v>
       </c>
       <c r="Q113" s="96">
         <f>IF(Q76&lt;168,(IF(Q73="Electricity",((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(Q83="Yes",1-Q85,1))),IF(Q73="Steam",((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(Q83="Yes",1-Q85,1))),((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(Q83="Yes",1-Q85,1))))))*(Q76/72)*Q68/(Q78),(IF(Q73="Electricity",((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(Q83="Yes",1-Q85,1))),IF(Q73="Steam",((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(Q83="Yes",1-Q85,1))),((VLOOKUP(Q60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(Q83="Yes",1-Q85,1))))))*(Q76/168)*Q68/(Q78))</f>
-        <v>420.11199999999997</v>
+        <v>36.656647499999998</v>
       </c>
       <c r="R113" s="96">
         <f>IF(R76&lt;168,(IF(R73="Electricity",((VLOOKUP(R60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(R83="Yes",1-R85,1))),IF(R73="Steam",((VLOOKUP(R60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(R83="Yes",1-R85,1))),((VLOOKUP(R60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(R83="Yes",1-R85,1))))))*(R76/72)*R68/(R78),(IF(R73="Electricity",((VLOOKUP(R60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(R83="Yes",1-R85,1))),IF(R73="Steam",((VLOOKUP(R60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(R83="Yes",1-R85,1))),((VLOOKUP(R60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(R83="Yes",1-R85,1))))))*(R76/168)*R68/(R78))</f>
-        <v>420.11199999999997</v>
+        <v>36.656647499999998</v>
       </c>
       <c r="S113" s="96">
         <f>IF(S76&lt;168,(IF(S73="Electricity",((VLOOKUP(S60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(S83="Yes",1-S85,1))),IF(S73="Steam",((VLOOKUP(S60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(S83="Yes",1-S85,1))),((VLOOKUP(S60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(S83="Yes",1-S85,1))))))*(S76/72)*S68/(S78),(IF(S73="Electricity",((VLOOKUP(S60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(S83="Yes",1-S85,1))),IF(S73="Steam",((VLOOKUP(S60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(S83="Yes",1-S85,1))),((VLOOKUP(S60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(S83="Yes",1-S85,1))))))*(S76/168)*S68/(S78))</f>
-        <v>420.11199999999997</v>
+        <v>36.656647499999998</v>
       </c>
       <c r="T113" s="96">
         <f>IF(T76&lt;168,(IF(T73="Electricity",((VLOOKUP(T60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(T83="Yes",1-T85,1))),IF(T73="Steam",((VLOOKUP(T60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(T83="Yes",1-T85,1))),((VLOOKUP(T60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(T83="Yes",1-T85,1))))))*(T76/72)*T68/(T78),(IF(T73="Electricity",((VLOOKUP(T60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(T83="Yes",1-T85,1))),IF(T73="Steam",((VLOOKUP(T60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(T83="Yes",1-T85,1))),((VLOOKUP(T60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(T83="Yes",1-T85,1))))))*(T76/168)*T68/(T78))</f>
-        <v>952.25386666666668</v>
+        <v>83.532723999999988</v>
       </c>
       <c r="U113" s="96">
         <f>IF(U76&lt;168,(IF(U73="Electricity",((VLOOKUP(U60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(U83="Yes",1-U85,1))),IF(U73="Steam",((VLOOKUP(U60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(U83="Yes",1-U85,1))),((VLOOKUP(U60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(U83="Yes",1-U85,1))))))*(U76/72)*U68/(U78),(IF(U73="Electricity",((VLOOKUP(U60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(U83="Yes",1-U85,1))),IF(U73="Steam",((VLOOKUP(U60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(U83="Yes",1-U85,1))),((VLOOKUP(U60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(U83="Yes",1-U85,1))))))*(U76/168)*U68/(U78))</f>
-        <v>952.25386666666668</v>
+        <v>83.532723999999988</v>
       </c>
       <c r="V113" s="96">
         <f>IF(V76&lt;168,(IF(V73="Electricity",((VLOOKUP(V60,'Table 1 - Operational Info'!$B$5:$N$24,7,0))*(IF(V83="Yes",1-V85,1))),IF(V73="Steam",((VLOOKUP(V60,'Table 1 - Operational Info'!$B$5:$N$24,8,0))*(IF(V83="Yes",1-V85,1))),((VLOOKUP(V60,'Table 1 - Operational Info'!$B$5:$N$24,6,0))*(IF(V83="Yes",1-V85,1))))))*(V76/72)*V68/(V78),(IF(V73="Electricity",((VLOOKUP(V60,'Table 1 - Operational Info'!$B$29:$N$48,7,0))*(IF(V83="Yes",1-V85,1))),IF(V73="Steam",((VLOOKUP(V60,'Table 1 - Operational Info'!$B$29:$N$48,8,0))*(IF(V83="Yes",1-V85,1))),((VLOOKUP(V60,'Table 1 - Operational Info'!$B$29:$N$48,6,0))*(IF(V83="Yes",1-V85,1))))))*(V76/168)*V68/(V78))</f>
-        <v>952.25386666666668</v>
+        <v>83.532723999999988</v>
       </c>
       <c r="W113" s="126"/>
       <c r="X113" s="126"/>
@@ -31622,83 +31633,83 @@
       </c>
       <c r="C114" s="95">
         <f t="shared" ref="C114:V114" si="53">C80*C113</f>
-        <v>804.41117377049193</v>
+        <v>163.08239015990159</v>
       </c>
       <c r="D114" s="95">
         <f t="shared" si="53"/>
-        <v>7097.7456509161048</v>
+        <v>560.59571617466167</v>
       </c>
       <c r="E114" s="95">
         <f t="shared" si="53"/>
-        <v>7097.7456509161048</v>
+        <v>560.59571617466167</v>
       </c>
       <c r="F114" s="95">
         <f t="shared" si="53"/>
-        <v>7097.7456509161048</v>
+        <v>560.59571617466167</v>
       </c>
       <c r="G114" s="95">
         <f t="shared" si="53"/>
-        <v>7097.7456509161048</v>
+        <v>560.59571617466167</v>
       </c>
       <c r="H114" s="95">
         <f t="shared" si="53"/>
-        <v>1045.7345259016395</v>
+        <v>83.036116989749885</v>
       </c>
       <c r="I114" s="95">
         <f t="shared" si="53"/>
-        <v>1045.7345259016395</v>
+        <v>83.036116989749885</v>
       </c>
       <c r="J114" s="95">
         <f t="shared" si="53"/>
-        <v>1045.7345259016395</v>
+        <v>83.036116989749885</v>
       </c>
       <c r="K114" s="95">
         <f t="shared" si="53"/>
-        <v>1045.7345259016395</v>
+        <v>83.036116989749885</v>
       </c>
       <c r="L114" s="95">
         <f t="shared" si="53"/>
-        <v>804.41117377049193</v>
+        <v>63.873936145961444</v>
       </c>
       <c r="M114" s="95">
         <f t="shared" si="53"/>
-        <v>804.41117377049193</v>
+        <v>63.873936145961444</v>
       </c>
       <c r="N114" s="95">
         <f t="shared" si="53"/>
-        <v>804.41117377049193</v>
+        <v>63.873936145961444</v>
       </c>
       <c r="O114" s="95">
         <f t="shared" si="53"/>
-        <v>804.41117377049193</v>
+        <v>63.873936145961444</v>
       </c>
       <c r="P114" s="95">
         <f t="shared" si="53"/>
-        <v>354.88728254580519</v>
+        <v>28.029785808733084</v>
       </c>
       <c r="Q114" s="95">
         <f t="shared" si="53"/>
-        <v>354.88728254580519</v>
+        <v>28.029785808733084</v>
       </c>
       <c r="R114" s="95">
         <f t="shared" si="53"/>
-        <v>354.88728254580519</v>
+        <v>28.029785808733084</v>
       </c>
       <c r="S114" s="95">
         <f t="shared" si="53"/>
-        <v>354.88728254580519</v>
+        <v>28.029785808733084</v>
       </c>
       <c r="T114" s="95">
         <f t="shared" si="53"/>
-        <v>804.41117377049193</v>
+        <v>63.873936145961444</v>
       </c>
       <c r="U114" s="95">
         <f t="shared" si="53"/>
-        <v>804.41117377049193</v>
+        <v>63.873936145961444</v>
       </c>
       <c r="V114" s="95">
         <f t="shared" si="53"/>
-        <v>804.41117377049193</v>
+        <v>63.873936145961444</v>
       </c>
       <c r="W114" s="126"/>
       <c r="X114" s="126"/>
@@ -31782,7 +31793,7 @@
       </c>
       <c r="C117" s="100">
         <f>' Calculation'!B68</f>
-        <v>10.830662309368197</v>
+        <v>0.34868366013071905</v>
       </c>
       <c r="D117" s="100">
         <f t="shared" ref="D117:V117" si="54">IF(D88="No",0,((((((D65-D68)*1.699)/60)/60)*D90/0.00401865)/(D91*D92))/1000)</f>
@@ -31802,63 +31813,63 @@
       </c>
       <c r="H117" s="100">
         <f t="shared" si="54"/>
-        <v>3.0911871203383323</v>
+        <v>0.33971638908112267</v>
       </c>
       <c r="I117" s="100">
         <f t="shared" si="54"/>
-        <v>3.9266430988081522</v>
+        <v>0.43153162937331807</v>
       </c>
       <c r="J117" s="100">
         <f t="shared" si="54"/>
-        <v>4.010188696655133</v>
+        <v>0.44071315340253758</v>
       </c>
       <c r="K117" s="100">
         <f t="shared" si="54"/>
-        <v>10.415351198257081</v>
+        <v>0.48049975752915547</v>
       </c>
       <c r="L117" s="100">
         <f t="shared" si="54"/>
-        <v>3.214447904652058</v>
+        <v>0.35334758169934638</v>
       </c>
       <c r="M117" s="100">
         <f t="shared" si="54"/>
-        <v>4.0832176086120739</v>
+        <v>0.44884692810457522</v>
       </c>
       <c r="N117" s="100">
         <f t="shared" si="54"/>
-        <v>4.170094579008075</v>
+        <v>0.458396862745098</v>
       </c>
       <c r="O117" s="100">
         <f t="shared" si="54"/>
-        <v>10.830662309368197</v>
+        <v>0.49977991285403056</v>
       </c>
       <c r="P117" s="100">
         <f t="shared" si="54"/>
-        <v>3.4440513264129189</v>
+        <v>0.37884564590542097</v>
       </c>
       <c r="Q117" s="100">
         <f t="shared" si="54"/>
-        <v>4.3748760092272212</v>
+        <v>0.48123636101499428</v>
       </c>
       <c r="R117" s="100">
         <f t="shared" si="54"/>
-        <v>4.4679584775086516</v>
+        <v>0.49147543252595149</v>
       </c>
       <c r="S117" s="100">
         <f t="shared" si="54"/>
-        <v>11.604281045751637</v>
+        <v>0.53584474240676661</v>
       </c>
       <c r="T117" s="100">
         <f t="shared" si="54"/>
-        <v>3.214447904652058</v>
+        <v>0.35334758169934638</v>
       </c>
       <c r="U117" s="100">
         <f t="shared" si="54"/>
-        <v>4.0832176086120739</v>
+        <v>0.44884692810457522</v>
       </c>
       <c r="V117" s="100">
         <f t="shared" si="54"/>
-        <v>4.170094579008075</v>
+        <v>0.458396862745098</v>
       </c>
       <c r="W117" s="126"/>
       <c r="X117" s="126"/>
@@ -31874,7 +31885,7 @@
       </c>
       <c r="C118" s="103">
         <f>' Calculation'!B69</f>
-        <v>3775.2049707921592</v>
+        <v>175.68745348680264</v>
       </c>
       <c r="D118" s="103">
         <f t="shared" ref="D118:V118" si="55">IF(D88="No",0,D117*D76*52*D79)</f>
@@ -31894,63 +31905,63 @@
       </c>
       <c r="H118" s="103">
         <f t="shared" si="55"/>
-        <v>1077.4839662626994</v>
+        <v>171.1692118954447</v>
       </c>
       <c r="I118" s="103">
         <f t="shared" si="55"/>
-        <v>1368.6958490364018</v>
+        <v>217.43116105637577</v>
       </c>
       <c r="J118" s="103">
         <f t="shared" si="55"/>
-        <v>1397.8170373137718</v>
+        <v>222.05735597246886</v>
       </c>
       <c r="K118" s="103">
         <f t="shared" si="55"/>
-        <v>3630.4414719121578</v>
+        <v>242.10420060887225</v>
       </c>
       <c r="L118" s="103">
         <f t="shared" si="55"/>
-        <v>1120.4485341121112</v>
+        <v>178.03741305573431</v>
       </c>
       <c r="M118" s="103">
         <f t="shared" si="55"/>
-        <v>1423.2724622505195</v>
+        <v>226.15563280052743</v>
       </c>
       <c r="N118" s="103">
         <f t="shared" si="55"/>
-        <v>1453.5548550643603</v>
+        <v>230.96745477500664</v>
       </c>
       <c r="O118" s="103">
         <f t="shared" si="55"/>
-        <v>3775.2049707921592</v>
+        <v>251.81868333108375</v>
       </c>
       <c r="P118" s="103">
         <f t="shared" si="55"/>
-        <v>1200.480572262976</v>
+        <v>190.88484607719803</v>
       </c>
       <c r="Q118" s="103">
         <f t="shared" si="55"/>
-        <v>1524.9347809826993</v>
+        <v>242.47534501698135</v>
       </c>
       <c r="R118" s="103">
         <f t="shared" si="55"/>
-        <v>1557.3802018546717</v>
+        <v>247.6343949109596</v>
       </c>
       <c r="S118" s="103">
         <f t="shared" si="55"/>
-        <v>4044.8624687058837</v>
+        <v>269.99027778486567</v>
       </c>
       <c r="T118" s="103">
         <f t="shared" si="55"/>
-        <v>1120.4485341121112</v>
+        <v>178.03741305573431</v>
       </c>
       <c r="U118" s="103">
         <f t="shared" si="55"/>
-        <v>1423.2724622505195</v>
+        <v>226.15563280052743</v>
       </c>
       <c r="V118" s="103">
         <f t="shared" si="55"/>
-        <v>1453.5548550643603</v>
+        <v>230.96745477500664</v>
       </c>
       <c r="W118" s="126"/>
       <c r="X118" s="126"/>
@@ -31966,7 +31977,7 @@
       </c>
       <c r="C119" s="103">
         <f>' Calculation'!B70</f>
-        <v>13350</v>
+        <v>875</v>
       </c>
       <c r="D119" s="103">
         <f>IF(D88="No",0,((12/D94)*VLOOKUP(D89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((D65-D68)*1.699)/60)/60/(D93/196.85))*10.7639),0)))</f>
@@ -31986,63 +31997,63 @@
       </c>
       <c r="H119" s="103">
         <f>IF(H88="No",0,((12/H94)*VLOOKUP(H89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((H65-H68)*1.699)/60)/60/(H93/196.85))*10.7639),0)))</f>
-        <v>1376</v>
+        <v>160</v>
       </c>
       <c r="I119" s="103">
         <f>IF(I88="No",0,((12/I94)*VLOOKUP(I89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((I65-I68)*1.699)/60)/60/(I93/196.85))*10.7639),0)))</f>
-        <v>1806</v>
+        <v>210</v>
       </c>
       <c r="J119" s="103">
         <f>IF(J88="No",0,((12/J94)*VLOOKUP(J89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((J65-J68)*1.699)/60)/60/(J93/196.85))*10.7639),0)))</f>
-        <v>2838</v>
+        <v>330</v>
       </c>
       <c r="K119" s="103">
         <f>IF(K88="No",0,((12/K94)*VLOOKUP(K89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((K65-K68)*1.699)/60)/60/(K93/196.85))*10.7639),0)))</f>
-        <v>12900</v>
+        <v>1250</v>
       </c>
       <c r="L119" s="103">
         <f>IF(L88="No",0,((12/L94)*VLOOKUP(L89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((L65-L68)*1.699)/60)/60/(L93/196.85))*10.7639),0)))</f>
-        <v>1424</v>
+        <v>160</v>
       </c>
       <c r="M119" s="103">
         <f>IF(M88="No",0,((12/M94)*VLOOKUP(M89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((M65-M68)*1.699)/60)/60/(M93/196.85))*10.7639),0)))</f>
-        <v>1869</v>
+        <v>210</v>
       </c>
       <c r="N119" s="103">
         <f>IF(N88="No",0,((12/N94)*VLOOKUP(N89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((N65-N68)*1.699)/60)/60/(N93/196.85))*10.7639),0)))</f>
-        <v>2937</v>
+        <v>330</v>
       </c>
       <c r="O119" s="103">
         <f>IF(O88="No",0,((12/O94)*VLOOKUP(O89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((O65-O68)*1.699)/60)/60/(O93/196.85))*10.7639),0)))</f>
-        <v>13350</v>
+        <v>1250</v>
       </c>
       <c r="P119" s="103">
         <f>IF(P88="No",0,((12/P94)*VLOOKUP(P89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((P65-P68)*1.699)/60)/60/(P93/196.85))*10.7639),0)))</f>
-        <v>1520</v>
+        <v>176</v>
       </c>
       <c r="Q119" s="103">
         <f>IF(Q88="No",0,((12/Q94)*VLOOKUP(Q89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((Q65-Q68)*1.699)/60)/60/(Q93/196.85))*10.7639),0)))</f>
-        <v>1995</v>
+        <v>231</v>
       </c>
       <c r="R119" s="103">
         <f>IF(R88="No",0,((12/R94)*VLOOKUP(R89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((R65-R68)*1.699)/60)/60/(R93/196.85))*10.7639),0)))</f>
-        <v>3135</v>
+        <v>363</v>
       </c>
       <c r="S119" s="103">
         <f>IF(S88="No",0,((12/S94)*VLOOKUP(S89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((S65-S68)*1.699)/60)/60/(S93/196.85))*10.7639),0)))</f>
-        <v>14250</v>
+        <v>1375</v>
       </c>
       <c r="T119" s="103">
         <f>IF(T88="No",0,((12/T94)*VLOOKUP(T89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((T65-T68)*1.699)/60)/60/(T93/196.85))*10.7639),0)))</f>
-        <v>1424</v>
+        <v>160</v>
       </c>
       <c r="U119" s="103">
         <f>IF(U88="No",0,((12/U94)*VLOOKUP(U89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((U65-U68)*1.699)/60)/60/(U93/196.85))*10.7639),0)))</f>
-        <v>1869</v>
+        <v>210</v>
       </c>
       <c r="V119" s="103">
         <f>IF(V88="No",0,((12/V94)*VLOOKUP(V89,'Table 2 - Filtration Info'!$B$3:$H$11,3,0))*(ROUNDUP((((((V65-V68)*1.699)/60)/60/(V93/196.85))*10.7639),0)))</f>
-        <v>2937</v>
+        <v>330</v>
       </c>
       <c r="W119" s="126"/>
       <c r="X119" s="126"/>
@@ -32058,7 +32069,7 @@
       </c>
       <c r="C120" s="103">
         <f>' Calculation'!B71</f>
-        <v>445</v>
+        <v>35</v>
       </c>
       <c r="D120" s="103">
         <f t="shared" ref="D120:V120" si="56">IF(D88="No",0,D95*(12/D94)*(ROUNDUP((((((D65-D68)*1.699)/60)/60/(D93/196.85))*10.7639),0)))</f>
@@ -32078,63 +32089,63 @@
       </c>
       <c r="H120" s="103">
         <f t="shared" si="56"/>
-        <v>1720</v>
+        <v>200</v>
       </c>
       <c r="I120" s="103">
         <f t="shared" si="56"/>
-        <v>1290</v>
+        <v>150</v>
       </c>
       <c r="J120" s="103">
         <f t="shared" si="56"/>
-        <v>1290</v>
+        <v>150</v>
       </c>
       <c r="K120" s="103">
         <f t="shared" si="56"/>
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="L120" s="103">
         <f t="shared" si="56"/>
-        <v>1780</v>
+        <v>200</v>
       </c>
       <c r="M120" s="103">
         <f t="shared" si="56"/>
-        <v>1335</v>
+        <v>150</v>
       </c>
       <c r="N120" s="103">
         <f t="shared" si="56"/>
-        <v>1335</v>
+        <v>150</v>
       </c>
       <c r="O120" s="103">
         <f t="shared" si="56"/>
-        <v>445</v>
+        <v>50</v>
       </c>
       <c r="P120" s="103">
         <f t="shared" si="56"/>
-        <v>1900</v>
+        <v>220</v>
       </c>
       <c r="Q120" s="103">
         <f t="shared" si="56"/>
-        <v>1425</v>
+        <v>165</v>
       </c>
       <c r="R120" s="103">
         <f t="shared" si="56"/>
-        <v>1425</v>
+        <v>165</v>
       </c>
       <c r="S120" s="103">
         <f t="shared" si="56"/>
-        <v>475</v>
+        <v>55</v>
       </c>
       <c r="T120" s="103">
         <f t="shared" si="56"/>
-        <v>1780</v>
+        <v>200</v>
       </c>
       <c r="U120" s="103">
         <f t="shared" si="56"/>
-        <v>1335</v>
+        <v>150</v>
       </c>
       <c r="V120" s="103">
         <f t="shared" si="56"/>
-        <v>1335</v>
+        <v>150</v>
       </c>
       <c r="W120" s="126"/>
       <c r="X120" s="126"/>
@@ -32150,7 +32161,7 @@
       </c>
       <c r="C121" s="103">
         <f>' Calculation'!B72</f>
-        <v>17570.204970792158</v>
+        <v>1085.6874534868027</v>
       </c>
       <c r="D121" s="103">
         <f t="shared" ref="D121:V121" si="57">IF(D88="No",0,D118+D119+D120)</f>
@@ -32170,63 +32181,63 @@
       </c>
       <c r="H121" s="103">
         <f t="shared" si="57"/>
-        <v>4173.4839662626991</v>
+        <v>531.16921189544473</v>
       </c>
       <c r="I121" s="103">
         <f t="shared" si="57"/>
-        <v>4464.6958490364013</v>
+        <v>577.4311610563758</v>
       </c>
       <c r="J121" s="103">
         <f t="shared" si="57"/>
-        <v>5525.8170373137718</v>
+        <v>702.05735597246883</v>
       </c>
       <c r="K121" s="103">
         <f t="shared" si="57"/>
-        <v>16960.441471912156</v>
+        <v>1542.1042006088724</v>
       </c>
       <c r="L121" s="103">
         <f t="shared" si="57"/>
-        <v>4324.4485341121108</v>
+        <v>538.03741305573431</v>
       </c>
       <c r="M121" s="103">
         <f t="shared" si="57"/>
-        <v>4627.2724622505193</v>
+        <v>586.15563280052743</v>
       </c>
       <c r="N121" s="103">
         <f t="shared" si="57"/>
-        <v>5725.5548550643598</v>
+        <v>710.96745477500667</v>
       </c>
       <c r="O121" s="103">
         <f t="shared" si="57"/>
-        <v>17570.204970792158</v>
+        <v>1551.8186833310838</v>
       </c>
       <c r="P121" s="103">
         <f t="shared" si="57"/>
-        <v>4620.4805722629762</v>
+        <v>586.88484607719806</v>
       </c>
       <c r="Q121" s="103">
         <f t="shared" si="57"/>
-        <v>4944.9347809826995</v>
+        <v>638.47534501698135</v>
       </c>
       <c r="R121" s="103">
         <f t="shared" si="57"/>
-        <v>6117.3802018546721</v>
+        <v>775.6343949109596</v>
       </c>
       <c r="S121" s="103">
         <f t="shared" si="57"/>
-        <v>18769.862468705884</v>
+        <v>1699.9902777848656</v>
       </c>
       <c r="T121" s="103">
         <f t="shared" si="57"/>
-        <v>4324.4485341121108</v>
+        <v>538.03741305573431</v>
       </c>
       <c r="U121" s="103">
         <f t="shared" si="57"/>
-        <v>4627.2724622505193</v>
+        <v>586.15563280052743</v>
       </c>
       <c r="V121" s="103">
         <f t="shared" si="57"/>
-        <v>5725.5548550643598</v>
+        <v>710.96745477500667</v>
       </c>
       <c r="W121" s="126"/>
       <c r="X121" s="126"/>
@@ -32931,83 +32942,83 @@
       </c>
       <c r="C132" s="106">
         <f>' Calculation'!B83</f>
-        <v>0.68</v>
+        <v>1.9393939393939394</v>
       </c>
       <c r="D132" s="106">
         <f t="shared" ref="D132:V132" si="64">D69</f>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="E132" s="106">
         <f t="shared" si="64"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F132" s="106">
         <f t="shared" si="64"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="G132" s="106">
         <f t="shared" si="64"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="H132" s="106">
         <f t="shared" si="64"/>
-        <v>0.88400000000000012</v>
+        <v>0.98747474747474739</v>
       </c>
       <c r="I132" s="106">
         <f t="shared" si="64"/>
-        <v>0.88400000000000012</v>
+        <v>0.98747474747474739</v>
       </c>
       <c r="J132" s="106">
         <f t="shared" si="64"/>
-        <v>0.88400000000000012</v>
+        <v>0.98747474747474739</v>
       </c>
       <c r="K132" s="106">
         <f t="shared" si="64"/>
-        <v>0.88400000000000012</v>
+        <v>0.98747474747474739</v>
       </c>
       <c r="L132" s="106">
         <f t="shared" si="64"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="M132" s="106">
         <f t="shared" si="64"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="N132" s="106">
         <f t="shared" si="64"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="O132" s="106">
         <f t="shared" si="64"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="P132" s="106">
         <f t="shared" si="64"/>
-        <v>0.3</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q132" s="106">
         <f t="shared" si="64"/>
-        <v>0.3</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R132" s="106">
         <f t="shared" si="64"/>
-        <v>0.3</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="S132" s="106">
         <f t="shared" si="64"/>
-        <v>0.3</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T132" s="106">
         <f t="shared" si="64"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="U132" s="106">
         <f t="shared" si="64"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="V132" s="106">
         <f t="shared" si="64"/>
-        <v>0.68</v>
+        <v>0.7595959595959596</v>
       </c>
       <c r="W132" s="126"/>
       <c r="X132" s="126"/>
@@ -33024,7 +33035,7 @@
       </c>
       <c r="C133" s="108">
         <f>' Calculation'!B84</f>
-        <v>5.3146800000000001</v>
+        <v>3.915151515151515</v>
       </c>
       <c r="D133" s="108">
         <f t="shared" ref="D133:V133" si="65">IF(D88="No",0,D96)</f>
@@ -33044,63 +33055,63 @@
       </c>
       <c r="H133" s="108">
         <f t="shared" si="65"/>
-        <v>2.2510400000000002</v>
+        <v>2.498844444444444</v>
       </c>
       <c r="I133" s="108">
         <f t="shared" si="65"/>
-        <v>3.6835200000000001</v>
+        <v>4.0890181818181812</v>
       </c>
       <c r="J133" s="108">
         <f t="shared" si="65"/>
-        <v>4.4509200000000009</v>
+        <v>4.9408969696969693</v>
       </c>
       <c r="K133" s="108">
         <f t="shared" si="65"/>
-        <v>5.1108840000000004</v>
+        <v>5.3952323232323227</v>
       </c>
       <c r="L133" s="108">
         <f t="shared" si="65"/>
-        <v>2.3408000000000002</v>
+        <v>2.5991111111111111</v>
       </c>
       <c r="M133" s="108">
         <f t="shared" si="65"/>
-        <v>3.8304</v>
+        <v>4.2530909090909086</v>
       </c>
       <c r="N133" s="108">
         <f t="shared" si="65"/>
-        <v>4.6284000000000001</v>
+        <v>5.1391515151515152</v>
       </c>
       <c r="O133" s="108">
         <f t="shared" si="65"/>
-        <v>5.3146800000000001</v>
+        <v>5.6117171717171717</v>
       </c>
       <c r="P133" s="108">
         <f t="shared" si="65"/>
-        <v>2.508</v>
+        <v>2.7866666666666666</v>
       </c>
       <c r="Q133" s="108">
         <f t="shared" si="65"/>
-        <v>4.1040000000000001</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="R133" s="108">
         <f t="shared" si="65"/>
-        <v>4.9590000000000005</v>
+        <v>5.51</v>
       </c>
       <c r="S133" s="108">
         <f t="shared" si="65"/>
-        <v>5.6943000000000001</v>
+        <v>6.0166666666666657</v>
       </c>
       <c r="T133" s="108">
         <f t="shared" si="65"/>
-        <v>2.3408000000000002</v>
+        <v>2.5991111111111111</v>
       </c>
       <c r="U133" s="108">
         <f t="shared" si="65"/>
-        <v>3.8304</v>
+        <v>4.2530909090909086</v>
       </c>
       <c r="V133" s="108">
         <f t="shared" si="65"/>
-        <v>4.6284000000000001</v>
+        <v>5.1391515151515152</v>
       </c>
       <c r="W133" s="126"/>
       <c r="X133" s="126"/>
@@ -33209,83 +33220,83 @@
       </c>
       <c r="C135" s="108">
         <f>' Calculation'!B86</f>
-        <v>5.9946799999999998</v>
+        <v>5.8545454545454545</v>
       </c>
       <c r="D135" s="108">
         <f t="shared" ref="D135:V135" si="67">SUM(D132:D134)</f>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="E135" s="108">
         <f t="shared" si="67"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F135" s="108">
         <f t="shared" si="67"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="G135" s="108">
         <f t="shared" si="67"/>
-        <v>6</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="H135" s="108">
         <f t="shared" si="67"/>
-        <v>3.13504</v>
+        <v>3.4863191919191916</v>
       </c>
       <c r="I135" s="108">
         <f t="shared" si="67"/>
-        <v>4.56752</v>
+        <v>5.0764929292929288</v>
       </c>
       <c r="J135" s="108">
         <f t="shared" si="67"/>
-        <v>5.3349200000000012</v>
+        <v>5.928371717171717</v>
       </c>
       <c r="K135" s="108">
         <f t="shared" si="67"/>
-        <v>5.9948840000000008</v>
+        <v>6.3827070707070703</v>
       </c>
       <c r="L135" s="108">
         <f t="shared" si="67"/>
-        <v>3.0208000000000004</v>
+        <v>3.3587070707070708</v>
       </c>
       <c r="M135" s="108">
         <f t="shared" si="67"/>
-        <v>4.5103999999999997</v>
+        <v>5.0126868686868686</v>
       </c>
       <c r="N135" s="108">
         <f t="shared" si="67"/>
-        <v>5.3083999999999998</v>
+        <v>5.8987474747474753</v>
       </c>
       <c r="O135" s="108">
         <f t="shared" si="67"/>
-        <v>5.9946799999999998</v>
+        <v>6.3713131313131317</v>
       </c>
       <c r="P135" s="108">
         <f t="shared" si="67"/>
-        <v>2.8079999999999998</v>
+        <v>3.12</v>
       </c>
       <c r="Q135" s="108">
         <f t="shared" si="67"/>
-        <v>4.4039999999999999</v>
+        <v>4.8933333333333326</v>
       </c>
       <c r="R135" s="108">
         <f t="shared" si="67"/>
-        <v>5.2590000000000003</v>
+        <v>5.8433333333333328</v>
       </c>
       <c r="S135" s="108">
         <f t="shared" si="67"/>
-        <v>5.9943</v>
+        <v>6.3499999999999988</v>
       </c>
       <c r="T135" s="108">
         <f t="shared" si="67"/>
-        <v>3.0208000000000004</v>
+        <v>3.3587070707070708</v>
       </c>
       <c r="U135" s="108">
         <f t="shared" si="67"/>
-        <v>4.5103999999999997</v>
+        <v>5.0126868686868686</v>
       </c>
       <c r="V135" s="108">
         <f t="shared" si="67"/>
-        <v>5.3083999999999998</v>
+        <v>5.8987474747474753</v>
       </c>
       <c r="W135" s="126"/>
       <c r="X135" s="126"/>
@@ -33369,83 +33380,83 @@
       </c>
       <c r="C138" s="95">
         <f>' Calculation'!B89</f>
-        <v>5531.9360737704919</v>
+        <v>2638.0213213245756</v>
       </c>
       <c r="D138" s="95">
         <f t="shared" ref="D138:V138" si="68">D114+D112</f>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="E138" s="95">
         <f t="shared" si="68"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="F138" s="95">
         <f t="shared" si="68"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="G138" s="95">
         <f t="shared" si="68"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="H138" s="95">
         <f t="shared" si="68"/>
-        <v>7191.5168959016401</v>
+        <v>1343.1925227744296</v>
       </c>
       <c r="I138" s="95">
         <f t="shared" si="68"/>
-        <v>7191.5168959016401</v>
+        <v>1343.1925227744296</v>
       </c>
       <c r="J138" s="95">
         <f t="shared" si="68"/>
-        <v>7191.5168959016401</v>
+        <v>1343.1925227744296</v>
       </c>
       <c r="K138" s="95">
         <f t="shared" si="68"/>
-        <v>7191.5168959016401</v>
+        <v>1343.1925227744296</v>
       </c>
       <c r="L138" s="95">
         <f t="shared" si="68"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="M138" s="95">
         <f t="shared" si="68"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="N138" s="95">
         <f t="shared" si="68"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="O138" s="95">
         <f t="shared" si="68"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="P138" s="95">
         <f t="shared" si="68"/>
-        <v>2440.5600325458054</v>
+        <v>453.40991460266144</v>
       </c>
       <c r="Q138" s="95">
         <f t="shared" si="68"/>
-        <v>2440.5600325458054</v>
+        <v>453.40991460266144</v>
       </c>
       <c r="R138" s="95">
         <f t="shared" si="68"/>
-        <v>2440.5600325458054</v>
+        <v>453.40991460266144</v>
       </c>
       <c r="S138" s="95">
         <f t="shared" si="68"/>
-        <v>2440.5600325458054</v>
+        <v>453.40991460266144</v>
       </c>
       <c r="T138" s="95">
         <f t="shared" si="68"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="U138" s="95">
         <f t="shared" si="68"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="V138" s="95">
         <f t="shared" si="68"/>
-        <v>5531.9360737704919</v>
+        <v>1033.2250175187919</v>
       </c>
       <c r="W138" s="126"/>
       <c r="X138" s="126"/>
@@ -33461,7 +33472,7 @@
       </c>
       <c r="C139" s="103">
         <f>' Calculation'!B90</f>
-        <v>17570.204970792158</v>
+        <v>1085.6874534868027</v>
       </c>
       <c r="D139" s="103">
         <f t="shared" ref="D139:V139" si="69">D121</f>
@@ -33481,63 +33492,63 @@
       </c>
       <c r="H139" s="103">
         <f t="shared" si="69"/>
-        <v>4173.4839662626991</v>
+        <v>531.16921189544473</v>
       </c>
       <c r="I139" s="103">
         <f t="shared" si="69"/>
-        <v>4464.6958490364013</v>
+        <v>577.4311610563758</v>
       </c>
       <c r="J139" s="103">
         <f t="shared" si="69"/>
-        <v>5525.8170373137718</v>
+        <v>702.05735597246883</v>
       </c>
       <c r="K139" s="103">
         <f t="shared" si="69"/>
-        <v>16960.441471912156</v>
+        <v>1542.1042006088724</v>
       </c>
       <c r="L139" s="103">
         <f t="shared" si="69"/>
-        <v>4324.4485341121108</v>
+        <v>538.03741305573431</v>
       </c>
       <c r="M139" s="103">
         <f t="shared" si="69"/>
-        <v>4627.2724622505193</v>
+        <v>586.15563280052743</v>
       </c>
       <c r="N139" s="103">
         <f t="shared" si="69"/>
-        <v>5725.5548550643598</v>
+        <v>710.96745477500667</v>
       </c>
       <c r="O139" s="103">
         <f t="shared" si="69"/>
-        <v>17570.204970792158</v>
+        <v>1551.8186833310838</v>
       </c>
       <c r="P139" s="103">
         <f t="shared" si="69"/>
-        <v>4620.4805722629762</v>
+        <v>586.88484607719806</v>
       </c>
       <c r="Q139" s="103">
         <f t="shared" si="69"/>
-        <v>4944.9347809826995</v>
+        <v>638.47534501698135</v>
       </c>
       <c r="R139" s="103">
         <f t="shared" si="69"/>
-        <v>6117.3802018546721</v>
+        <v>775.6343949109596</v>
       </c>
       <c r="S139" s="103">
         <f t="shared" si="69"/>
-        <v>18769.862468705884</v>
+        <v>1699.9902777848656</v>
       </c>
       <c r="T139" s="103">
         <f t="shared" si="69"/>
-        <v>4324.4485341121108</v>
+        <v>538.03741305573431</v>
       </c>
       <c r="U139" s="103">
         <f t="shared" si="69"/>
-        <v>4627.2724622505193</v>
+        <v>586.15563280052743</v>
       </c>
       <c r="V139" s="103">
         <f t="shared" si="69"/>
-        <v>5725.5548550643598</v>
+        <v>710.96745477500667</v>
       </c>
       <c r="W139" s="126"/>
       <c r="X139" s="126"/>
@@ -33645,83 +33656,83 @@
       </c>
       <c r="C141" s="95">
         <f>' Calculation'!B92</f>
-        <v>23102.14104456265</v>
+        <v>3723.7087748113781</v>
       </c>
       <c r="D141" s="95">
         <f t="shared" ref="D141:V141" si="71">SUM(D138:D140)</f>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="E141" s="95">
         <f t="shared" si="71"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="F141" s="95">
         <f t="shared" si="71"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="G141" s="95">
         <f t="shared" si="71"/>
-        <v>48811.200650916107</v>
+        <v>9068.1982920532282</v>
       </c>
       <c r="H141" s="95">
         <f t="shared" si="71"/>
-        <v>11365.000862164339</v>
+        <v>1874.3617346698743</v>
       </c>
       <c r="I141" s="95">
         <f t="shared" si="71"/>
-        <v>11656.212744938042</v>
+        <v>1920.6236838308055</v>
       </c>
       <c r="J141" s="95">
         <f t="shared" si="71"/>
-        <v>12717.333933215412</v>
+        <v>2045.2498787468985</v>
       </c>
       <c r="K141" s="95">
         <f t="shared" si="71"/>
-        <v>24151.958367813797</v>
+        <v>2885.2967233833019</v>
       </c>
       <c r="L141" s="95">
         <f t="shared" si="71"/>
-        <v>9856.3846078826027</v>
+        <v>1571.2624305745262</v>
       </c>
       <c r="M141" s="95">
         <f t="shared" si="71"/>
-        <v>10159.208536021011</v>
+        <v>1619.3806503193193</v>
       </c>
       <c r="N141" s="95">
         <f t="shared" si="71"/>
-        <v>11257.490928834852</v>
+        <v>1744.1924722937986</v>
       </c>
       <c r="O141" s="95">
         <f t="shared" si="71"/>
-        <v>23102.14104456265</v>
+        <v>2585.0437008498757</v>
       </c>
       <c r="P141" s="95">
         <f t="shared" si="71"/>
-        <v>7061.0406048087816</v>
+        <v>1040.2947606798596</v>
       </c>
       <c r="Q141" s="95">
         <f t="shared" si="71"/>
-        <v>7385.4948135285049</v>
+        <v>1091.8852596196427</v>
       </c>
       <c r="R141" s="95">
         <f t="shared" si="71"/>
-        <v>8557.9402344004775</v>
+        <v>1229.0443095136211</v>
       </c>
       <c r="S141" s="95">
         <f t="shared" si="71"/>
-        <v>21210.422501251691</v>
+        <v>2153.4001923875271</v>
       </c>
       <c r="T141" s="95">
         <f t="shared" si="71"/>
-        <v>9856.3846078826027</v>
+        <v>1571.2624305745262</v>
       </c>
       <c r="U141" s="95">
         <f t="shared" si="71"/>
-        <v>10159.208536021011</v>
+        <v>1619.3806503193193</v>
       </c>
       <c r="V141" s="95">
         <f t="shared" si="71"/>
-        <v>11257.490928834852</v>
+        <v>1744.1924722937986</v>
       </c>
       <c r="W141" s="126"/>
       <c r="X141" s="126"/>
@@ -33805,83 +33816,83 @@
       </c>
       <c r="C144" s="103">
         <f>' Calculation'!B95</f>
-        <v>40.947698493333341</v>
+        <v>14.132370512000003</v>
       </c>
       <c r="D144" s="103">
         <f t="shared" ref="D144:V144" si="72">D111*(7.07*(10^(-4)))+IF(D73="Electricity",(D113*(7.07*(10^(-4)))),IF(D73="Gas",(D113*0.0053),(D113*0.0549)))</f>
-        <v>361.30322200000006</v>
+        <v>48.580023635000003</v>
       </c>
       <c r="E144" s="103">
         <f t="shared" si="72"/>
-        <v>361.30322200000006</v>
+        <v>48.580023635000003</v>
       </c>
       <c r="F144" s="103">
         <f t="shared" si="72"/>
-        <v>361.30322200000006</v>
+        <v>48.580023635000003</v>
       </c>
       <c r="G144" s="103">
         <f t="shared" si="72"/>
-        <v>361.30322200000006</v>
+        <v>48.580023635000003</v>
       </c>
       <c r="H144" s="103">
         <f t="shared" si="72"/>
-        <v>53.232008041333344</v>
+        <v>7.1957319856933326</v>
       </c>
       <c r="I144" s="103">
         <f t="shared" si="72"/>
-        <v>53.232008041333344</v>
+        <v>7.1957319856933326</v>
       </c>
       <c r="J144" s="103">
         <f t="shared" si="72"/>
-        <v>53.232008041333344</v>
+        <v>7.1957319856933326</v>
       </c>
       <c r="K144" s="103">
         <f t="shared" si="72"/>
-        <v>53.232008041333344</v>
+        <v>7.1957319856933326</v>
       </c>
       <c r="L144" s="103">
         <f t="shared" si="72"/>
-        <v>40.947698493333341</v>
+        <v>5.5351784505333326</v>
       </c>
       <c r="M144" s="103">
         <f t="shared" si="72"/>
-        <v>40.947698493333341</v>
+        <v>5.5351784505333326</v>
       </c>
       <c r="N144" s="103">
         <f t="shared" si="72"/>
-        <v>40.947698493333341</v>
+        <v>5.5351784505333326</v>
       </c>
       <c r="O144" s="103">
         <f t="shared" si="72"/>
-        <v>40.947698493333341</v>
+        <v>5.5351784505333326</v>
       </c>
       <c r="P144" s="103">
         <f t="shared" si="72"/>
-        <v>18.065161100000001</v>
+        <v>2.4290011817500003</v>
       </c>
       <c r="Q144" s="103">
         <f t="shared" si="72"/>
-        <v>18.065161100000001</v>
+        <v>2.4290011817500003</v>
       </c>
       <c r="R144" s="103">
         <f t="shared" si="72"/>
-        <v>18.065161100000001</v>
+        <v>2.4290011817500003</v>
       </c>
       <c r="S144" s="103">
         <f t="shared" si="72"/>
-        <v>18.065161100000001</v>
+        <v>2.4290011817500003</v>
       </c>
       <c r="T144" s="103">
         <f t="shared" si="72"/>
-        <v>40.947698493333341</v>
+        <v>5.5351784505333326</v>
       </c>
       <c r="U144" s="103">
         <f t="shared" si="72"/>
-        <v>40.947698493333341</v>
+        <v>5.5351784505333326</v>
       </c>
       <c r="V144" s="103">
         <f t="shared" si="72"/>
-        <v>40.947698493333341</v>
+        <v>5.5351784505333326</v>
       </c>
       <c r="W144" s="126"/>
       <c r="X144" s="126"/>
@@ -33897,7 +33908,7 @@
       </c>
       <c r="C145" s="103">
         <f>' Calculation'!B96</f>
-        <v>28.668849778196098</v>
+        <v>0.92296843783529448</v>
       </c>
       <c r="D145" s="103">
         <f t="shared" ref="D145:V145" si="73">IF(D88="No",0,D117*D76*52)*(7.07*(10^(-4)))</f>
@@ -33917,63 +33928,63 @@
       </c>
       <c r="H145" s="103">
         <f t="shared" si="73"/>
-        <v>8.1823970370325299</v>
+        <v>0.89923199962884437</v>
       </c>
       <c r="I145" s="103">
         <f t="shared" si="73"/>
-        <v>10.393855695689968</v>
+        <v>1.142267675204208</v>
       </c>
       <c r="J145" s="103">
         <f t="shared" si="73"/>
-        <v>10.615001561555712</v>
+        <v>1.1665712427617443</v>
       </c>
       <c r="K145" s="103">
         <f t="shared" si="73"/>
-        <v>27.569517944596086</v>
+        <v>1.2718867021777349</v>
       </c>
       <c r="L145" s="103">
         <f t="shared" si="73"/>
-        <v>8.5086693191972351</v>
+        <v>0.9353138755388235</v>
       </c>
       <c r="M145" s="103">
         <f t="shared" si="73"/>
-        <v>10.80830967573703</v>
+        <v>1.1881014094682356</v>
       </c>
       <c r="N145" s="103">
         <f t="shared" si="73"/>
-        <v>11.038273711391007</v>
+        <v>1.2133801628611764</v>
       </c>
       <c r="O145" s="103">
         <f t="shared" si="73"/>
-        <v>28.668849778196098</v>
+        <v>1.3229214275639218</v>
       </c>
       <c r="P145" s="103">
         <f t="shared" si="73"/>
-        <v>9.116431413425607</v>
+        <v>1.0028074554768167</v>
       </c>
       <c r="Q145" s="103">
         <f t="shared" si="73"/>
-        <v>11.58033179543253</v>
+        <v>1.273836497497578</v>
       </c>
       <c r="R145" s="103">
         <f t="shared" si="73"/>
-        <v>11.826721833633222</v>
+        <v>1.3009394016996538</v>
       </c>
       <c r="S145" s="103">
         <f t="shared" si="73"/>
-        <v>30.716624762352954</v>
+        <v>1.4183853199086505</v>
       </c>
       <c r="T145" s="103">
         <f t="shared" si="73"/>
-        <v>8.5086693191972351</v>
+        <v>0.9353138755388235</v>
       </c>
       <c r="U145" s="103">
         <f t="shared" si="73"/>
-        <v>10.80830967573703</v>
+        <v>1.1881014094682356</v>
       </c>
       <c r="V145" s="103">
         <f t="shared" si="73"/>
-        <v>11.038273711391007</v>
+        <v>1.2133801628611764</v>
       </c>
       <c r="W145" s="126"/>
       <c r="X145" s="126"/>
@@ -34081,83 +34092,83 @@
       </c>
       <c r="C147" s="103">
         <f>' Calculation'!B98</f>
-        <v>69.616548271529439</v>
+        <v>15.055338949835297</v>
       </c>
       <c r="D147" s="103">
         <f t="shared" ref="D147:V147" si="75">D144+D145+D146</f>
-        <v>361.30322200000006</v>
+        <v>48.580023635000003</v>
       </c>
       <c r="E147" s="103">
         <f t="shared" si="75"/>
-        <v>361.30322200000006</v>
+        <v>48.580023635000003</v>
       </c>
       <c r="F147" s="103">
         <f t="shared" si="75"/>
-        <v>361.30322200000006</v>
+        <v>48.580023635000003</v>
       </c>
       <c r="G147" s="103">
         <f t="shared" si="75"/>
-        <v>361.30322200000006</v>
+        <v>48.580023635000003</v>
       </c>
       <c r="H147" s="103">
         <f t="shared" si="75"/>
-        <v>61.414405078365874</v>
+        <v>8.0949639853221775</v>
       </c>
       <c r="I147" s="103">
         <f t="shared" si="75"/>
-        <v>63.625863737023309</v>
+        <v>8.3379996608975411</v>
       </c>
       <c r="J147" s="103">
         <f t="shared" si="75"/>
-        <v>63.847009602889059</v>
+        <v>8.362303228455076</v>
       </c>
       <c r="K147" s="103">
         <f t="shared" si="75"/>
-        <v>80.80152598592943</v>
+        <v>8.4676186878710666</v>
       </c>
       <c r="L147" s="103">
         <f t="shared" si="75"/>
-        <v>49.456367812530573</v>
+        <v>6.4704923260721561</v>
       </c>
       <c r="M147" s="103">
         <f t="shared" si="75"/>
-        <v>51.75600816907037</v>
+        <v>6.7232798600015684</v>
       </c>
       <c r="N147" s="103">
         <f t="shared" si="75"/>
-        <v>51.985972204724348</v>
+        <v>6.7485586133945095</v>
       </c>
       <c r="O147" s="103">
         <f t="shared" si="75"/>
-        <v>69.616548271529439</v>
+        <v>6.8580998780972546</v>
       </c>
       <c r="P147" s="103">
         <f t="shared" si="75"/>
-        <v>27.181592513425606</v>
+        <v>3.4318086372268173</v>
       </c>
       <c r="Q147" s="103">
         <f t="shared" si="75"/>
-        <v>29.645492895432533</v>
+        <v>3.7028376792475783</v>
       </c>
       <c r="R147" s="103">
         <f t="shared" si="75"/>
-        <v>29.891882933633223</v>
+        <v>3.729940583449654</v>
       </c>
       <c r="S147" s="103">
         <f t="shared" si="75"/>
-        <v>48.781785862352955</v>
+        <v>3.8473865016586508</v>
       </c>
       <c r="T147" s="103">
         <f t="shared" si="75"/>
-        <v>49.456367812530573</v>
+        <v>6.4704923260721561</v>
       </c>
       <c r="U147" s="103">
         <f t="shared" si="75"/>
-        <v>51.75600816907037</v>
+        <v>6.7232798600015684</v>
       </c>
       <c r="V147" s="103">
         <f t="shared" si="75"/>
-        <v>51.985972204724348</v>
+        <v>6.7485586133945095</v>
       </c>
       <c r="W147" s="126"/>
       <c r="X147" s="126"/>
@@ -40873,11 +40884,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="3" max="6" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="12.75" customHeight="1"/>
@@ -42078,87 +42089,89 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.26953125" customWidth="1"/>
+    <col min="8" max="8" width="31.26953125" customWidth="1"/>
+    <col min="9" max="9" width="32.453125" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="12" width="20.28515625" customWidth="1"/>
+    <col min="11" max="12" width="20.26953125" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="18" width="8.85546875" customWidth="1"/>
+    <col min="15" max="18" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="189" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="300" t="s">
+      <c r="B1" s="301" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
-      <c r="P1" s="301"/>
-      <c r="Q1" s="301"/>
-      <c r="R1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
+      <c r="J1" s="302"/>
+      <c r="K1" s="302"/>
+      <c r="L1" s="302"/>
+      <c r="M1" s="302"/>
+      <c r="N1" s="302"/>
+      <c r="O1" s="302"/>
+      <c r="P1" s="302"/>
+      <c r="Q1" s="302"/>
+      <c r="R1" s="303"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="A2" s="190"/>
-      <c r="B2" s="281"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="282"/>
-      <c r="N2" s="282"/>
-      <c r="O2" s="282"/>
-      <c r="P2" s="282"/>
-      <c r="Q2" s="282"/>
-      <c r="R2" s="303"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="292"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="292"/>
+      <c r="Q2" s="292"/>
+      <c r="R2" s="304"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="305" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305"/>
-      <c r="J3" s="305"/>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="306"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="306"/>
+      <c r="K3" s="306"/>
+      <c r="L3" s="306"/>
+      <c r="M3" s="306"/>
+      <c r="N3" s="307"/>
       <c r="O3" s="191"/>
       <c r="P3" s="191"/>
       <c r="Q3" s="191"/>
@@ -42215,7 +42228,7 @@
       <c r="N4" s="196" t="s">
         <v>251</v>
       </c>
-      <c r="O4" s="307"/>
+      <c r="O4" s="308"/>
       <c r="P4" s="191"/>
       <c r="Q4" s="191"/>
       <c r="R4" s="197"/>
@@ -42269,7 +42282,7 @@
         <f t="shared" ref="N5:N24" si="4">M5+F5</f>
         <v>1.1667452176392115</v>
       </c>
-      <c r="O5" s="308"/>
+      <c r="O5" s="309"/>
       <c r="P5" s="65"/>
       <c r="Q5" s="65"/>
       <c r="R5" s="206"/>
@@ -42323,7 +42336,7 @@
         <f t="shared" si="4"/>
         <v>1.2319765146941617</v>
       </c>
-      <c r="O6" s="308"/>
+      <c r="O6" s="309"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
       <c r="R6" s="206"/>
@@ -42377,7 +42390,7 @@
         <f t="shared" si="4"/>
         <v>1.3126164089587946</v>
       </c>
-      <c r="O7" s="308"/>
+      <c r="O7" s="309"/>
       <c r="P7" s="65"/>
       <c r="Q7" s="65"/>
       <c r="R7" s="206"/>
@@ -42431,7 +42444,7 @@
         <f t="shared" si="4"/>
         <v>0.92639748581965908</v>
       </c>
-      <c r="O8" s="308"/>
+      <c r="O8" s="309"/>
       <c r="P8" s="65"/>
       <c r="Q8" s="65"/>
       <c r="R8" s="206"/>
@@ -42485,7 +42498,7 @@
         <f t="shared" si="4"/>
         <v>1.6487633258278598</v>
       </c>
-      <c r="O9" s="308"/>
+      <c r="O9" s="309"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
       <c r="R9" s="206"/>
@@ -42539,7 +42552,7 @@
         <f t="shared" si="4"/>
         <v>0.89740858165608728</v>
       </c>
-      <c r="O10" s="308"/>
+      <c r="O10" s="309"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="65"/>
       <c r="R10" s="206"/>
@@ -42593,7 +42606,7 @@
         <f t="shared" si="4"/>
         <v>1.9144664446744397</v>
       </c>
-      <c r="O11" s="308"/>
+      <c r="O11" s="309"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="206"/>
@@ -42647,7 +42660,7 @@
         <f t="shared" si="4"/>
         <v>1.0495476391814964</v>
       </c>
-      <c r="O12" s="308"/>
+      <c r="O12" s="309"/>
       <c r="P12" s="65"/>
       <c r="Q12" s="65"/>
       <c r="R12" s="206"/>
@@ -42701,7 +42714,7 @@
         <f t="shared" si="4"/>
         <v>2.0919341094944008</v>
       </c>
-      <c r="O13" s="308"/>
+      <c r="O13" s="309"/>
       <c r="P13" s="65"/>
       <c r="Q13" s="65"/>
       <c r="R13" s="206"/>
@@ -42755,7 +42768,7 @@
         <f t="shared" si="4"/>
         <v>0.96146374766462883</v>
       </c>
-      <c r="O14" s="308"/>
+      <c r="O14" s="309"/>
       <c r="P14" s="65"/>
       <c r="Q14" s="65"/>
       <c r="R14" s="206"/>
@@ -42809,7 +42822,7 @@
         <f t="shared" si="4"/>
         <v>1.7092157639663887</v>
       </c>
-      <c r="O15" s="308"/>
+      <c r="O15" s="309"/>
       <c r="P15" s="65"/>
       <c r="Q15" s="65"/>
       <c r="R15" s="206"/>
@@ -42863,7 +42876,7 @@
         <f t="shared" si="4"/>
         <v>1.0876007740661353</v>
       </c>
-      <c r="O16" s="308"/>
+      <c r="O16" s="309"/>
       <c r="P16" s="65"/>
       <c r="Q16" s="65"/>
       <c r="R16" s="206"/>
@@ -42917,7 +42930,7 @@
         <f t="shared" si="4"/>
         <v>1.4273913991978606</v>
       </c>
-      <c r="O17" s="308"/>
+      <c r="O17" s="309"/>
       <c r="P17" s="65"/>
       <c r="Q17" s="65"/>
       <c r="R17" s="206"/>
@@ -42972,7 +42985,7 @@
         <f t="shared" si="4"/>
         <v>0.97622401301832218</v>
       </c>
-      <c r="O18" s="308"/>
+      <c r="O18" s="309"/>
       <c r="P18" s="65"/>
       <c r="Q18" s="65"/>
       <c r="R18" s="206"/>
@@ -43034,7 +43047,7 @@
         <f t="shared" si="4"/>
         <v>1.2023515688432309</v>
       </c>
-      <c r="O19" s="308"/>
+      <c r="O19" s="309"/>
       <c r="P19" s="65"/>
       <c r="Q19" s="65"/>
       <c r="R19" s="206"/>
@@ -43088,7 +43101,7 @@
         <f t="shared" si="4"/>
         <v>1.6476028957651971</v>
       </c>
-      <c r="O20" s="308"/>
+      <c r="O20" s="309"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="65"/>
       <c r="R20" s="206"/>
@@ -43142,7 +43155,7 @@
         <f t="shared" si="4"/>
         <v>0.92610470399999989</v>
       </c>
-      <c r="O21" s="308"/>
+      <c r="O21" s="309"/>
       <c r="P21" s="65"/>
       <c r="Q21" s="65"/>
       <c r="R21" s="206"/>
@@ -43204,7 +43217,7 @@
         <f t="shared" si="4"/>
         <v>0.9820299330842952</v>
       </c>
-      <c r="O22" s="308"/>
+      <c r="O22" s="309"/>
       <c r="P22" s="65"/>
       <c r="Q22" s="65"/>
       <c r="R22" s="206"/>
@@ -43258,7 +43271,7 @@
         <f t="shared" si="4"/>
         <v>1.9410690488165294</v>
       </c>
-      <c r="O23" s="308"/>
+      <c r="O23" s="309"/>
       <c r="P23" s="65"/>
       <c r="Q23" s="65"/>
       <c r="R23" s="206"/>
@@ -43312,7 +43325,7 @@
         <f t="shared" si="4"/>
         <v>1.2697180086416471</v>
       </c>
-      <c r="O24" s="309"/>
+      <c r="O24" s="310"/>
       <c r="P24" s="65"/>
       <c r="Q24" s="65"/>
       <c r="R24" s="206"/>
@@ -43358,22 +43371,22 @@
       <c r="R26" s="206"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="310" t="s">
+      <c r="A27" s="311" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="301"/>
-      <c r="C27" s="301"/>
-      <c r="D27" s="301"/>
-      <c r="E27" s="301"/>
-      <c r="F27" s="301"/>
-      <c r="G27" s="301"/>
-      <c r="H27" s="301"/>
-      <c r="I27" s="301"/>
-      <c r="J27" s="301"/>
-      <c r="K27" s="301"/>
-      <c r="L27" s="301"/>
-      <c r="M27" s="301"/>
-      <c r="N27" s="302"/>
+      <c r="B27" s="302"/>
+      <c r="C27" s="302"/>
+      <c r="D27" s="302"/>
+      <c r="E27" s="302"/>
+      <c r="F27" s="302"/>
+      <c r="G27" s="302"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="302"/>
+      <c r="J27" s="302"/>
+      <c r="K27" s="302"/>
+      <c r="L27" s="302"/>
+      <c r="M27" s="302"/>
+      <c r="N27" s="303"/>
       <c r="O27" s="65"/>
       <c r="P27" s="65"/>
       <c r="Q27" s="65"/>
@@ -45896,16 +45909,18 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="6" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
@@ -45915,9 +45930,9 @@
       <c r="B1" s="229"/>
       <c r="C1" s="229"/>
       <c r="D1" s="229"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="313"/>
       <c r="H1" s="229"/>
       <c r="I1" s="229"/>
       <c r="J1" s="229"/>
@@ -45925,16 +45940,16 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="A2" s="231"/>
-      <c r="B2" s="313" t="s">
+      <c r="B2" s="314" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="300"/>
       <c r="J2" s="65"/>
       <c r="K2" s="206"/>
     </row>
@@ -46255,18 +46270,18 @@
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1">
       <c r="A13" s="224"/>
-      <c r="B13" s="314" t="s">
+      <c r="B13" s="315" t="s">
         <v>313</v>
       </c>
-      <c r="C13" s="315"/>
-      <c r="D13" s="315"/>
-      <c r="E13" s="315"/>
-      <c r="F13" s="315"/>
-      <c r="G13" s="315"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="315"/>
-      <c r="J13" s="315"/>
-      <c r="K13" s="316"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="317"/>
       <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
@@ -47315,18 +47330,18 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="23" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="23" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
